--- a/config/project/Integrate_120KW_huawei_20KW/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_huawei_20KW/IntegrateConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_huawei_20KW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2E46D41-ADDB-43F8-9C8B-A781C91FC1A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="7730" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19100" windowHeight="7730" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520">
   <si>
     <t>组序号</t>
   </si>
@@ -1327,6 +1321,49 @@
     <t>华为电源模块设置</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
     <t>空调二维码录入</t>
   </si>
   <si>
@@ -2411,46 +2448,18 @@
   <si>
     <t>0x048103</t>
   </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2488,15 +2497,153 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2512,13 +2659,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2555,8 +2697,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2631,17 +2959,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2678,10 +3248,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2693,9 +3263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2717,10 +3287,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2744,54 +3314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2810,28 +3332,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2840,29 +3368,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3120,31 +3698,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="57.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.09090909090909" customWidth="1"/>
+    <col min="2" max="2" width="34.2727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="57.4545454545455" style="2" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.7272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.25">
+    <row r="1" ht="26" spans="1:7">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -3190,7 +3768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -3213,7 +3791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="36">
         <v>1</v>
       </c>
@@ -3236,7 +3814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="36">
         <v>1</v>
       </c>
@@ -3259,7 +3837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="36">
         <v>1</v>
       </c>
@@ -3282,7 +3860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="36">
         <v>1</v>
       </c>
@@ -3305,7 +3883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="36">
         <v>1</v>
       </c>
@@ -3328,7 +3906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="36">
         <v>1</v>
       </c>
@@ -3351,7 +3929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="36">
         <v>1</v>
       </c>
@@ -3374,7 +3952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="36">
         <v>1</v>
       </c>
@@ -3397,7 +3975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="36">
         <v>1</v>
       </c>
@@ -3420,7 +3998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="36">
         <v>1</v>
       </c>
@@ -3443,7 +4021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="36">
         <v>1</v>
       </c>
@@ -3466,12 +4044,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="22">
@@ -3487,10 +4065,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -3504,10 +4082,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
+    <row r="17" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -3521,10 +4099,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -3538,10 +4116,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -3555,7 +4133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="36">
         <v>1</v>
       </c>
@@ -3578,7 +4156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="36">
         <v>1</v>
       </c>
@@ -3601,12 +4179,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="22">
@@ -3622,10 +4200,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -3639,10 +4217,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -3656,10 +4234,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3673,10 +4251,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3690,7 +4268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="37"/>
       <c r="B27" s="16" t="s">
         <v>42</v>
@@ -3711,7 +4289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="37"/>
       <c r="B28" s="23" t="s">
         <v>43</v>
@@ -3732,12 +4310,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="41" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="22">
@@ -3753,10 +4331,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -3770,10 +4348,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -3787,10 +4365,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -3804,10 +4382,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="22">
         <v>32</v>
       </c>
@@ -3821,12 +4399,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="22">
@@ -3842,10 +4420,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="22">
         <v>34</v>
       </c>
@@ -3859,12 +4437,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="22">
@@ -3880,10 +4458,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="22">
         <v>36</v>
       </c>
@@ -3897,12 +4475,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="52" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="37"/>
+      <c r="B38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="22">
@@ -3918,10 +4496,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="22">
         <v>38</v>
       </c>
@@ -3935,18 +4513,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="22">
         <v>39</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="44" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="37" t="s">
@@ -3956,14 +4534,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="44" t="s">
         <v>64</v>
       </c>
       <c r="F41" s="37" t="s">
@@ -3973,14 +4551,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="44" t="s">
         <v>65</v>
       </c>
       <c r="F42" s="16" t="s">
@@ -3990,14 +4568,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="44" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="37" t="s">
@@ -4007,10 +4585,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="22">
         <v>43</v>
       </c>
@@ -4024,12 +4602,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="53">
+    <row r="45" spans="1:7">
+      <c r="A45" s="37">
         <v>13</v>
       </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="22">
@@ -4045,7 +4623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="37"/>
       <c r="B46" s="16" t="s">
         <v>69</v>
@@ -4066,7 +4644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="37"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
@@ -4087,7 +4665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="13.5" customHeight="1" spans="1:7">
       <c r="A48" s="37"/>
       <c r="B48" s="15" t="s">
         <v>72</v>
@@ -4108,12 +4686,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="22">
@@ -4129,10 +4707,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -4146,10 +4724,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -4163,7 +4741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="37"/>
       <c r="B52" s="29" t="s">
         <v>81</v>
@@ -4184,7 +4762,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="37"/>
       <c r="B53" s="29" t="s">
         <v>84</v>
@@ -4205,7 +4783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="17.5" customHeight="1" spans="1:7">
       <c r="A54" s="37"/>
       <c r="B54" s="16" t="s">
         <v>86</v>
@@ -4226,7 +4804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="37"/>
       <c r="B55" s="16" t="s">
         <v>88</v>
@@ -4247,12 +4825,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D56" s="22">
@@ -4268,44 +4846,44 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="22">
         <v>56</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="39" t="s">
+      <c r="F57" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="22">
         <v>57</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="39" t="s">
+      <c r="F58" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
+    <row r="59" spans="1:7">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="22">
         <v>58</v>
       </c>
@@ -4319,44 +4897,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
+    <row r="60" spans="1:7">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="22">
         <v>59</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F60" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="39" t="s">
+      <c r="F60" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="22">
         <v>60</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="39" t="s">
+      <c r="F61" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="22">
         <v>61</v>
       </c>
@@ -4370,7 +4948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="37"/>
       <c r="B63" s="16" t="s">
         <v>103</v>
@@ -4391,7 +4969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="37"/>
       <c r="B64" s="16" t="s">
         <v>93</v>
@@ -4412,12 +4990,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60" t="s">
+    <row r="65" spans="1:7">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="22">
@@ -4433,10 +5011,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="22">
         <v>65</v>
       </c>
@@ -4450,10 +5028,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
+    <row r="67" ht="17.5" customHeight="1" spans="1:7">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="22">
         <v>66</v>
       </c>
@@ -4467,7 +5045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="29"/>
       <c r="B68" s="29" t="s">
         <v>112</v>
@@ -4488,7 +5066,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="29"/>
       <c r="B69" s="29" t="s">
         <v>114</v>
@@ -4509,7 +5087,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="37"/>
       <c r="B70" s="16" t="s">
         <v>115</v>
@@ -4530,7 +5108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="37"/>
       <c r="B71" s="16" t="s">
         <v>116</v>
@@ -4551,12 +5129,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="22">
@@ -4572,44 +5150,44 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="55"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
+    <row r="73" spans="1:7">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="39" t="s">
+      <c r="G73" s="45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
+    <row r="74" spans="1:7">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="22">
         <v>73</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G74" s="39" t="s">
+      <c r="G74" s="45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="22">
         <v>74</v>
       </c>
@@ -4623,44 +5201,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="55"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="22">
         <v>75</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="39" t="s">
+      <c r="F76" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="39" t="s">
+      <c r="G76" s="45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="55"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
+    <row r="77" spans="1:7">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="22">
         <v>76</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G77" s="45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="55"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="22">
         <v>77</v>
       </c>
@@ -4674,7 +5252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" s="37"/>
       <c r="B79" s="16" t="s">
         <v>128</v>
@@ -4695,7 +5273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" s="37"/>
       <c r="B80" s="16" t="s">
         <v>119</v>
@@ -4716,18 +5294,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52" t="s">
+    <row r="81" spans="1:7">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="D81" s="22">
         <v>80</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="46" t="s">
         <v>131</v>
       </c>
       <c r="F81" s="37" t="s">
@@ -4737,14 +5315,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
+    <row r="82" spans="1:7">
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="22">
         <v>81</v>
       </c>
-      <c r="E82" s="40" t="s">
+      <c r="E82" s="46" t="s">
         <v>132</v>
       </c>
       <c r="F82" s="37" t="s">
@@ -4754,14 +5332,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
+    <row r="83" spans="1:7">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="22">
         <v>82</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="46" t="s">
         <v>133</v>
       </c>
       <c r="F83" s="37" t="s">
@@ -4771,14 +5349,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
+    <row r="84" spans="1:7">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="22">
         <v>83</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="46" t="s">
         <v>134</v>
       </c>
       <c r="F84" s="37" t="s">
@@ -4788,7 +5366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="37"/>
       <c r="B85" s="16" t="s">
         <v>135</v>
@@ -4809,7 +5387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="37"/>
       <c r="B86" s="16" t="s">
         <v>136</v>
@@ -4830,7 +5408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="37"/>
       <c r="B87" s="16" t="s">
         <v>137</v>
@@ -4851,7 +5429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="37"/>
       <c r="B88" s="16" t="s">
         <v>138</v>
@@ -4872,7 +5450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="37"/>
       <c r="B89" s="16" t="s">
         <v>141</v>
@@ -4893,7 +5471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="37"/>
       <c r="B90" s="16" t="s">
         <v>142</v>
@@ -4914,7 +5492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="22"/>
       <c r="B91" s="16" t="s">
         <v>144</v>
@@ -4935,7 +5513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="22"/>
       <c r="B92" s="16" t="s">
         <v>146</v>
@@ -4956,7 +5534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="22"/>
       <c r="B93" s="16" t="s">
         <v>148</v>
@@ -4977,7 +5555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="22"/>
       <c r="B94" s="16" t="s">
         <v>150</v>
@@ -4998,7 +5576,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="22"/>
       <c r="B95" s="16" t="s">
         <v>152</v>
@@ -5019,7 +5597,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="22"/>
       <c r="B96" s="16" t="s">
         <v>153</v>
@@ -5040,7 +5618,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="22"/>
       <c r="B97" s="22" t="s">
         <v>154</v>
@@ -5061,7 +5639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="22"/>
       <c r="B98" s="22" t="s">
         <v>156</v>
@@ -5082,12 +5660,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61" t="s">
+    <row r="99" spans="1:7">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="61" t="s">
+      <c r="C99" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="22">
@@ -5103,10 +5681,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="61"/>
+    <row r="100" spans="1:7">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="22">
         <v>99</v>
       </c>
@@ -5120,10 +5698,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="61"/>
+    <row r="101" spans="1:7">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="22">
         <v>100</v>
       </c>
@@ -5137,12 +5715,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="42" t="s">
+    <row r="102" spans="1:7">
+      <c r="A102" s="47"/>
+      <c r="B102" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="48" t="s">
         <v>162</v>
       </c>
       <c r="D102" s="22">
@@ -5158,12 +5736,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="B103" s="61" t="s">
+    <row r="103" spans="1:7">
+      <c r="A103" s="22"/>
+      <c r="B103" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D103" s="22">
@@ -5179,10 +5757,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
-      <c r="B104" s="62"/>
-      <c r="C104" s="62"/>
+    <row r="104" spans="1:7">
+      <c r="A104" s="48"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
       <c r="D104" s="22">
         <v>103</v>
       </c>
@@ -5196,10 +5774,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
-      <c r="B105" s="62"/>
-      <c r="C105" s="62"/>
+    <row r="105" spans="1:7">
+      <c r="A105" s="48"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
       <c r="D105" s="22">
         <v>104</v>
       </c>
@@ -5213,8 +5791,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
+    <row r="106" s="33" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A106" s="48"/>
       <c r="B106" s="16" t="s">
         <v>164</v>
       </c>
@@ -5234,8 +5812,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
+    <row r="107" s="33" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A107" s="48"/>
       <c r="B107" s="22" t="s">
         <v>166</v>
       </c>
@@ -5255,8 +5833,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
+    <row r="108" s="33" customFormat="1" spans="1:7">
+      <c r="A108" s="48"/>
       <c r="B108" s="22" t="s">
         <v>168</v>
       </c>
@@ -5276,8 +5854,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
+    <row r="109" s="33" customFormat="1" spans="1:7">
+      <c r="A109" s="48"/>
       <c r="B109" s="22" t="s">
         <v>169</v>
       </c>
@@ -5297,8 +5875,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
+    <row r="110" s="33" customFormat="1" spans="1:7">
+      <c r="A110" s="48"/>
       <c r="B110" s="22" t="s">
         <v>170</v>
       </c>
@@ -5318,8 +5896,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
+    <row r="111" s="33" customFormat="1" ht="15.65" customHeight="1" spans="1:7">
+      <c r="A111" s="48"/>
       <c r="B111" s="16" t="s">
         <v>171</v>
       </c>
@@ -5339,8 +5917,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
+    <row r="112" s="33" customFormat="1" ht="15.65" customHeight="1" spans="1:7">
+      <c r="A112" s="48"/>
       <c r="B112" s="16" t="s">
         <v>172</v>
       </c>
@@ -5360,7 +5938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="32"/>
       <c r="B113" s="16" t="s">
         <v>173</v>
@@ -5381,7 +5959,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="32"/>
       <c r="B114" s="16" t="s">
         <v>175</v>
@@ -5402,7 +5980,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="32"/>
       <c r="B115" s="16" t="s">
         <v>176</v>
@@ -5423,7 +6001,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="32"/>
       <c r="B116" s="16" t="s">
         <v>177</v>
@@ -5444,7 +6022,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="32"/>
       <c r="B117" s="16" t="s">
         <v>178</v>
@@ -5465,7 +6043,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="32"/>
       <c r="B118" s="16" t="s">
         <v>179</v>
@@ -5486,7 +6064,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="32"/>
       <c r="B119" s="16" t="s">
         <v>181</v>
@@ -5507,7 +6085,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
         <v>183</v>
@@ -5528,7 +6106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
         <v>184</v>
@@ -5549,7 +6127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
         <v>185</v>
@@ -5570,7 +6148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="13.5" customHeight="1" spans="1:7">
       <c r="A123" s="16"/>
       <c r="B123" s="16" t="s">
         <v>186</v>
@@ -5591,7 +6169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="13.5" customHeight="1" spans="1:7">
       <c r="A124" s="16"/>
       <c r="B124" s="16" t="s">
         <v>188</v>
@@ -5612,7 +6190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="16"/>
       <c r="B125" s="16" t="s">
         <v>189</v>
@@ -5633,7 +6211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="16"/>
       <c r="B126" s="16" t="s">
         <v>190</v>
@@ -5654,7 +6232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="16"/>
       <c r="B127" s="16" t="s">
         <v>191</v>
@@ -5675,7 +6253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="16"/>
       <c r="B128" s="16" t="s">
         <v>192</v>
@@ -5696,7 +6274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="16"/>
       <c r="B129" s="16" t="s">
         <v>193</v>
@@ -5717,7 +6295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="16"/>
       <c r="B130" s="16" t="s">
         <v>194</v>
@@ -5738,7 +6316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
         <v>195</v>
@@ -5759,7 +6337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
         <v>196</v>
@@ -5780,7 +6358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="16"/>
       <c r="B133" s="16" t="s">
         <v>197</v>
@@ -5801,7 +6379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="16"/>
       <c r="B134" s="16" t="s">
         <v>198</v>
@@ -5822,7 +6400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="16"/>
       <c r="B135" s="16" t="s">
         <v>199</v>
@@ -5843,7 +6421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="16"/>
       <c r="B136" s="16" t="s">
         <v>200</v>
@@ -5864,7 +6442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="16"/>
       <c r="B137" s="16" t="s">
         <v>201</v>
@@ -5885,7 +6463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
         <v>202</v>
@@ -5906,7 +6484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
         <v>203</v>
@@ -5927,7 +6505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
         <v>204</v>
@@ -5948,7 +6526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="16"/>
       <c r="B141" s="16" t="s">
         <v>205</v>
@@ -5969,7 +6547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="16"/>
       <c r="B142" s="16" t="s">
         <v>206</v>
@@ -5990,7 +6568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="16"/>
       <c r="B143" s="16" t="s">
         <v>207</v>
@@ -6011,7 +6589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
         <v>208</v>
@@ -6032,7 +6610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="16"/>
       <c r="B145" s="16" t="s">
         <v>209</v>
@@ -6053,7 +6631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="16"/>
       <c r="B146" s="16" t="s">
         <v>210</v>
@@ -6074,7 +6652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="16"/>
       <c r="B147" s="16" t="s">
         <v>211</v>
@@ -6095,7 +6673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="16"/>
       <c r="B148" s="16" t="s">
         <v>212</v>
@@ -6116,7 +6694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="16"/>
       <c r="B149" s="16" t="s">
         <v>213</v>
@@ -6137,7 +6715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="16"/>
       <c r="B150" s="16" t="s">
         <v>214</v>
@@ -6158,7 +6736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="16"/>
       <c r="B151" s="16" t="s">
         <v>215</v>
@@ -6179,7 +6757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
         <v>216</v>
@@ -6200,70 +6778,70 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="63"/>
-      <c r="B153" s="63" t="s">
+    <row r="153" spans="1:7">
+      <c r="A153" s="49"/>
+      <c r="B153" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="C153" s="53" t="s">
+      <c r="C153" s="37" t="s">
         <v>219</v>
       </c>
       <c r="D153" s="16">
         <v>152</v>
       </c>
-      <c r="E153" s="40" t="s">
+      <c r="E153" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="F153" s="39" t="s">
+      <c r="F153" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="G153" s="39" t="s">
+      <c r="G153" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
-      <c r="B154" s="63"/>
-      <c r="C154" s="53"/>
+    <row r="154" spans="1:7">
+      <c r="A154" s="49"/>
+      <c r="B154" s="49"/>
+      <c r="C154" s="37"/>
       <c r="D154" s="16">
         <v>153</v>
       </c>
-      <c r="E154" s="43" t="s">
+      <c r="E154" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="F154" s="39" t="s">
+      <c r="F154" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="G154" s="39" t="s">
+      <c r="G154" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="63"/>
-      <c r="B155" s="63"/>
-      <c r="C155" s="53"/>
+    <row r="155" spans="1:7">
+      <c r="A155" s="49"/>
+      <c r="B155" s="49"/>
+      <c r="C155" s="37"/>
       <c r="D155" s="16">
         <v>154</v>
       </c>
-      <c r="E155" s="43" t="s">
+      <c r="E155" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="F155" s="39" t="s">
+      <c r="F155" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="G155" s="39" t="s">
+      <c r="G155" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="44"/>
+    <row r="156" spans="1:7">
+      <c r="A156" s="51"/>
       <c r="B156" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C156" s="45" t="s">
+      <c r="C156" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D156" s="46">
+      <c r="D156" s="53">
         <v>155</v>
       </c>
       <c r="E156" s="9" t="s">
@@ -6276,15 +6854,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="44"/>
+    <row r="157" spans="1:7">
+      <c r="A157" s="51"/>
       <c r="B157" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C157" s="45" t="s">
+      <c r="C157" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D157" s="46">
+      <c r="D157" s="53">
         <v>156</v>
       </c>
       <c r="E157" s="9" t="s">
@@ -6297,15 +6875,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="44"/>
+    <row r="158" spans="1:7">
+      <c r="A158" s="51"/>
       <c r="B158" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C158" s="45" t="s">
+      <c r="C158" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D158" s="46">
+      <c r="D158" s="53">
         <v>157</v>
       </c>
       <c r="E158" s="9" t="s">
@@ -6318,15 +6896,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
+    <row r="159" spans="1:7">
+      <c r="A159" s="51"/>
       <c r="B159" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C159" s="45" t="s">
+      <c r="C159" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D159" s="46">
+      <c r="D159" s="53">
         <v>158</v>
       </c>
       <c r="E159" s="9" t="s">
@@ -6339,15 +6917,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="44"/>
+    <row r="160" spans="1:7">
+      <c r="A160" s="51"/>
       <c r="B160" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="45" t="s">
+      <c r="C160" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D160" s="46">
+      <c r="D160" s="53">
         <v>159</v>
       </c>
       <c r="E160" s="9" t="s">
@@ -6360,15 +6938,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
+    <row r="161" spans="1:7">
+      <c r="A161" s="51"/>
       <c r="B161" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C161" s="45" t="s">
+      <c r="C161" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D161" s="46">
+      <c r="D161" s="53">
         <v>160</v>
       </c>
       <c r="E161" s="9" t="s">
@@ -6381,15 +6959,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
+    <row r="162" spans="1:7">
+      <c r="A162" s="51"/>
       <c r="B162" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="45" t="s">
+      <c r="C162" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D162" s="46">
+      <c r="D162" s="53">
         <v>161</v>
       </c>
       <c r="E162" s="9" t="s">
@@ -6402,15 +6980,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="44"/>
+    <row r="163" spans="1:7">
+      <c r="A163" s="51"/>
       <c r="B163" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C163" s="45" t="s">
+      <c r="C163" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D163" s="46">
+      <c r="D163" s="53">
         <v>162</v>
       </c>
       <c r="E163" s="9" t="s">
@@ -6423,15 +7001,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
+    <row r="164" spans="1:7">
+      <c r="A164" s="51"/>
       <c r="B164" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C164" s="45" t="s">
+      <c r="C164" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D164" s="46">
+      <c r="D164" s="53">
         <v>163</v>
       </c>
       <c r="E164" s="9" t="s">
@@ -6444,15 +7022,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
+    <row r="165" spans="1:7">
+      <c r="A165" s="51"/>
       <c r="B165" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C165" s="45" t="s">
+      <c r="C165" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D165" s="46">
+      <c r="D165" s="53">
         <v>164</v>
       </c>
       <c r="E165" s="9" t="s">
@@ -6465,15 +7043,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
+    <row r="166" spans="1:7">
+      <c r="A166" s="51"/>
       <c r="B166" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="45" t="s">
+      <c r="C166" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D166" s="46">
+      <c r="D166" s="53">
         <v>165</v>
       </c>
       <c r="E166" s="9" t="s">
@@ -6486,15 +7064,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
+    <row r="167" spans="1:7">
+      <c r="A167" s="51"/>
       <c r="B167" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C167" s="45" t="s">
+      <c r="C167" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D167" s="46">
+      <c r="D167" s="53">
         <v>166</v>
       </c>
       <c r="E167" s="9" t="s">
@@ -6507,261 +7085,261 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
-      <c r="B168" s="54" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="38"/>
+      <c r="B168" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="C168" s="54" t="s">
+      <c r="C168" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D168" s="46">
+      <c r="D168" s="53">
         <v>167</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F168" s="39" t="s">
+      <c r="F168" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="G168" s="39" t="s">
+      <c r="G168" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="55"/>
-      <c r="B169" s="68"/>
-      <c r="C169" s="68"/>
-      <c r="D169" s="46">
+    <row r="169" spans="1:7">
+      <c r="A169" s="39"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="54"/>
+      <c r="D169" s="53">
         <v>168</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F169" s="39" t="s">
+      <c r="F169" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G169" s="39" t="s">
+      <c r="G169" s="45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="55"/>
-      <c r="B170" s="68"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="46">
+    <row r="170" spans="1:7">
+      <c r="A170" s="39"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="54"/>
+      <c r="D170" s="53">
         <v>169</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F170" s="39" t="s">
+      <c r="F170" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G170" s="39" t="s">
+      <c r="G170" s="45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="55"/>
-      <c r="B171" s="68"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="46">
+    <row r="171" spans="1:7">
+      <c r="A171" s="39"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="54"/>
+      <c r="D171" s="53">
         <v>170</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F171" s="39" t="s">
+      <c r="F171" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="G171" s="39" t="s">
+      <c r="G171" s="45" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="55"/>
-      <c r="B172" s="68"/>
-      <c r="C172" s="68"/>
-      <c r="D172" s="46">
+    <row r="172" spans="1:7">
+      <c r="A172" s="39"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="53">
         <v>171</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F172" s="39" t="s">
+      <c r="F172" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="G172" s="39" t="s">
+      <c r="G172" s="45" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="55"/>
-      <c r="B173" s="68"/>
-      <c r="C173" s="68"/>
-      <c r="D173" s="46">
+    <row r="173" spans="1:7">
+      <c r="A173" s="39"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="53">
         <v>172</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F173" s="39" t="s">
+      <c r="F173" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="G173" s="39" t="s">
+      <c r="G173" s="45" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="56"/>
-      <c r="B174" s="69"/>
-      <c r="C174" s="69"/>
-      <c r="D174" s="46">
+    <row r="174" spans="1:7">
+      <c r="A174" s="40"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="55"/>
+      <c r="D174" s="53">
         <v>173</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F174" s="39" t="s">
+      <c r="F174" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="G174" s="39" t="s">
+      <c r="G174" s="45" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="54"/>
-      <c r="B175" s="54" t="s">
+    <row r="175" spans="1:7">
+      <c r="A175" s="38"/>
+      <c r="B175" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C175" s="54" t="s">
+      <c r="C175" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D175" s="46">
+      <c r="D175" s="53">
         <v>174</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F175" s="39" t="s">
+      <c r="F175" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="G175" s="39" t="s">
+      <c r="G175" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="55"/>
-      <c r="B176" s="68"/>
-      <c r="C176" s="68"/>
-      <c r="D176" s="46">
+    <row r="176" spans="1:7">
+      <c r="A176" s="39"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="53">
         <v>175</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F176" s="39" t="s">
+      <c r="F176" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="G176" s="39" t="s">
+      <c r="G176" s="45" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="55"/>
-      <c r="B177" s="68"/>
-      <c r="C177" s="68"/>
-      <c r="D177" s="46">
+    <row r="177" spans="1:7">
+      <c r="A177" s="39"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="54"/>
+      <c r="D177" s="53">
         <v>176</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F177" s="39" t="s">
+      <c r="F177" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="G177" s="39" t="s">
+      <c r="G177" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="68"/>
-      <c r="C178" s="68"/>
-      <c r="D178" s="46">
+    <row r="178" spans="1:7">
+      <c r="A178" s="39"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="54"/>
+      <c r="D178" s="53">
         <v>177</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F178" s="39" t="s">
+      <c r="F178" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="G178" s="39" t="s">
+      <c r="G178" s="45" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="B179" s="68"/>
-      <c r="C179" s="68"/>
-      <c r="D179" s="46">
+    <row r="179" spans="1:7">
+      <c r="A179" s="39"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="53">
         <v>178</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F179" s="39" t="s">
+      <c r="F179" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="G179" s="39" t="s">
+      <c r="G179" s="45" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="68"/>
-      <c r="C180" s="68"/>
-      <c r="D180" s="46">
+    <row r="180" spans="1:7">
+      <c r="A180" s="39"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="53">
         <v>179</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F180" s="39" t="s">
+      <c r="F180" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="G180" s="39" t="s">
+      <c r="G180" s="45" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="56"/>
-      <c r="B181" s="69"/>
-      <c r="C181" s="69"/>
-      <c r="D181" s="46">
+    <row r="181" spans="1:7">
+      <c r="A181" s="40"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="53">
         <v>180</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F181" s="39" t="s">
+      <c r="F181" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="G181" s="39" t="s">
+      <c r="G181" s="45" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="47"/>
+    <row r="182" spans="1:7">
+      <c r="A182" s="56"/>
       <c r="B182" s="16" t="s">
         <v>257</v>
       </c>
       <c r="C182" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D182" s="46">
+      <c r="D182" s="53">
         <v>181</v>
       </c>
       <c r="E182" s="16" t="s">
@@ -6774,15 +7352,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="47"/>
+    <row r="183" spans="1:7">
+      <c r="A183" s="56"/>
       <c r="B183" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C183" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D183" s="46">
+      <c r="D183" s="53">
         <v>182</v>
       </c>
       <c r="E183" s="15" t="s">
@@ -6795,15 +7373,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="47"/>
+    <row r="184" spans="1:7">
+      <c r="A184" s="56"/>
       <c r="B184" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C184" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D184" s="46">
+      <c r="D184" s="53">
         <v>183</v>
       </c>
       <c r="E184" s="37" t="s">
@@ -6816,32 +7394,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="64"/>
-      <c r="B185" s="54" t="s">
+    <row r="185" spans="1:7">
+      <c r="A185" s="57"/>
+      <c r="B185" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C185" s="70" t="s">
+      <c r="C185" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="D185" s="46">
+      <c r="D185" s="53">
         <v>184</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F185" s="48" t="s">
+      <c r="F185" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="G185" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
-      <c r="B186" s="68"/>
-      <c r="C186" s="71"/>
-      <c r="D186" s="46">
+      <c r="G185" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="39"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="53">
         <v>185</v>
       </c>
       <c r="E186" s="16" t="s">
@@ -6850,15 +7428,15 @@
       <c r="F186" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G186" s="39" t="s">
+      <c r="G186" s="45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="55"/>
-      <c r="B187" s="68"/>
-      <c r="C187" s="71"/>
-      <c r="D187" s="46">
+    <row r="187" spans="1:7">
+      <c r="A187" s="39"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="53">
         <v>186</v>
       </c>
       <c r="E187" s="16" t="s">
@@ -6867,15 +7445,15 @@
       <c r="F187" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="G187" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="55"/>
-      <c r="B188" s="68"/>
-      <c r="C188" s="71"/>
-      <c r="D188" s="46">
+      <c r="G187" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="39"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="53">
         <v>187</v>
       </c>
       <c r="E188" s="16" t="s">
@@ -6884,15 +7462,15 @@
       <c r="F188" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G188" s="39" t="s">
+      <c r="G188" s="45" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="55"/>
-      <c r="B189" s="68"/>
-      <c r="C189" s="71"/>
-      <c r="D189" s="46">
+    <row r="189" spans="1:7">
+      <c r="A189" s="39"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="53">
         <v>188</v>
       </c>
       <c r="E189" s="16" t="s">
@@ -6901,15 +7479,15 @@
       <c r="F189" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="G189" s="39" t="s">
+      <c r="G189" s="45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="55"/>
-      <c r="B190" s="68"/>
-      <c r="C190" s="71"/>
-      <c r="D190" s="46">
+    <row r="190" spans="1:7">
+      <c r="A190" s="39"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="53">
         <v>189</v>
       </c>
       <c r="E190" s="16" t="s">
@@ -6918,15 +7496,15 @@
       <c r="F190" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="G190" s="39" t="s">
+      <c r="G190" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="55"/>
-      <c r="B191" s="68"/>
-      <c r="C191" s="71"/>
-      <c r="D191" s="46">
+    <row r="191" spans="1:7">
+      <c r="A191" s="39"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="53">
         <v>190</v>
       </c>
       <c r="E191" s="16" t="s">
@@ -6935,15 +7513,15 @@
       <c r="F191" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="G191" s="39" t="s">
+      <c r="G191" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="55"/>
-      <c r="B192" s="68"/>
-      <c r="C192" s="71"/>
-      <c r="D192" s="46">
+    <row r="192" spans="1:7">
+      <c r="A192" s="39"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="53">
         <v>191</v>
       </c>
       <c r="E192" s="37" t="s">
@@ -6952,15 +7530,15 @@
       <c r="F192" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G192" s="39" t="s">
+      <c r="G192" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="55"/>
-      <c r="B193" s="68"/>
-      <c r="C193" s="71"/>
-      <c r="D193" s="46">
+    <row r="193" spans="1:7">
+      <c r="A193" s="39"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="53">
         <v>192</v>
       </c>
       <c r="E193" s="37" t="s">
@@ -6969,15 +7547,15 @@
       <c r="F193" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="G193" s="39" t="s">
+      <c r="G193" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="55"/>
-      <c r="B194" s="68"/>
-      <c r="C194" s="71"/>
-      <c r="D194" s="46">
+    <row r="194" spans="1:7">
+      <c r="A194" s="39"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="53">
         <v>193</v>
       </c>
       <c r="E194" s="37" t="s">
@@ -6986,15 +7564,15 @@
       <c r="F194" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="G194" s="39" t="s">
+      <c r="G194" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="55"/>
-      <c r="B195" s="68"/>
-      <c r="C195" s="71"/>
-      <c r="D195" s="46">
+    <row r="195" spans="1:7">
+      <c r="A195" s="39"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="53">
         <v>194</v>
       </c>
       <c r="E195" s="37" t="s">
@@ -7003,15 +7581,15 @@
       <c r="F195" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="G195" s="39" t="s">
+      <c r="G195" s="45" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="55"/>
-      <c r="B196" s="68"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="46">
+    <row r="196" spans="1:7">
+      <c r="A196" s="39"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="53">
         <v>195</v>
       </c>
       <c r="E196" s="37" t="s">
@@ -7020,15 +7598,15 @@
       <c r="F196" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="G196" s="39" t="s">
+      <c r="G196" s="45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="55"/>
-      <c r="B197" s="68"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="46">
+    <row r="197" spans="1:7">
+      <c r="A197" s="39"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="53">
         <v>196</v>
       </c>
       <c r="E197" s="37" t="s">
@@ -7037,15 +7615,15 @@
       <c r="F197" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="G197" s="39" t="s">
+      <c r="G197" s="45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="55"/>
-      <c r="B198" s="68"/>
-      <c r="C198" s="71"/>
-      <c r="D198" s="46">
+    <row r="198" spans="1:7">
+      <c r="A198" s="39"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="53">
         <v>197</v>
       </c>
       <c r="E198" s="37" t="s">
@@ -7054,15 +7632,15 @@
       <c r="F198" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G198" s="39" t="s">
+      <c r="G198" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="56"/>
-      <c r="B199" s="69"/>
-      <c r="C199" s="72"/>
-      <c r="D199" s="46">
+    <row r="199" spans="1:7">
+      <c r="A199" s="40"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="60"/>
+      <c r="D199" s="53">
         <v>198</v>
       </c>
       <c r="E199" s="37" t="s">
@@ -7071,19 +7649,19 @@
       <c r="F199" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="G199" s="39" t="s">
+      <c r="G199" s="45" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="65"/>
-      <c r="B200" s="65" t="s">
+    <row r="200" spans="1:7">
+      <c r="A200" s="38"/>
+      <c r="B200" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="C200" s="65" t="s">
+      <c r="C200" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="D200" s="49">
+      <c r="D200" s="53">
         <v>199</v>
       </c>
       <c r="E200" s="37" t="s">
@@ -7096,11 +7674,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="66"/>
-      <c r="B201" s="66"/>
-      <c r="C201" s="66"/>
-      <c r="D201" s="49">
+    <row r="201" spans="1:7">
+      <c r="A201" s="54"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="54"/>
+      <c r="D201" s="53">
         <v>200</v>
       </c>
       <c r="E201" s="37" t="s">
@@ -7113,11 +7691,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="66"/>
-      <c r="B202" s="66"/>
-      <c r="C202" s="66"/>
-      <c r="D202" s="49">
+    <row r="202" spans="1:7">
+      <c r="A202" s="54"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="54"/>
+      <c r="D202" s="53">
         <v>201</v>
       </c>
       <c r="E202" s="37" t="s">
@@ -7130,11 +7708,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="66"/>
-      <c r="B203" s="66"/>
-      <c r="C203" s="66"/>
-      <c r="D203" s="49">
+    <row r="203" spans="1:7">
+      <c r="A203" s="54"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="53">
         <v>202</v>
       </c>
       <c r="E203" s="37" t="s">
@@ -7147,11 +7725,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="66"/>
-      <c r="B204" s="66"/>
-      <c r="C204" s="66"/>
-      <c r="D204" s="49">
+    <row r="204" spans="1:7">
+      <c r="A204" s="54"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="54"/>
+      <c r="D204" s="53">
         <v>203</v>
       </c>
       <c r="E204" s="37" t="s">
@@ -7164,11 +7742,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="66"/>
-      <c r="B205" s="66"/>
-      <c r="C205" s="66"/>
-      <c r="D205" s="49">
+    <row r="205" spans="1:7">
+      <c r="A205" s="54"/>
+      <c r="B205" s="54"/>
+      <c r="C205" s="54"/>
+      <c r="D205" s="53">
         <v>204</v>
       </c>
       <c r="E205" s="37" t="s">
@@ -7181,142 +7759,142 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="65"/>
-      <c r="B206" s="65" t="s">
+    <row r="206" spans="1:7">
+      <c r="A206" s="38"/>
+      <c r="B206" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="C206" s="65" t="s">
+      <c r="C206" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D206" s="49">
+      <c r="D206" s="53">
         <v>207</v>
       </c>
-      <c r="E206" s="50" t="s">
+      <c r="E206" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F206" s="51" t="s">
+      <c r="F206" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="G206" s="51" t="s">
+      <c r="G206" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="55"/>
-      <c r="B207" s="66"/>
-      <c r="C207" s="66"/>
-      <c r="D207" s="49">
+    <row r="207" spans="1:7">
+      <c r="A207" s="39"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="54"/>
+      <c r="D207" s="53">
         <v>208</v>
       </c>
-      <c r="E207" s="50" t="s">
+      <c r="E207" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F207" s="51" t="s">
+      <c r="F207" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="G207" s="51" t="s">
+      <c r="G207" s="45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="55"/>
-      <c r="B208" s="66"/>
-      <c r="C208" s="66"/>
-      <c r="D208" s="49">
+    <row r="208" spans="1:7">
+      <c r="A208" s="39"/>
+      <c r="B208" s="54"/>
+      <c r="C208" s="54"/>
+      <c r="D208" s="53">
         <v>209</v>
       </c>
-      <c r="E208" s="50" t="s">
+      <c r="E208" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F208" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="G208" s="39" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="55"/>
-      <c r="B209" s="66"/>
-      <c r="C209" s="66"/>
-      <c r="D209" s="49">
+      <c r="F208" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G208" s="45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="39"/>
+      <c r="B209" s="54"/>
+      <c r="C209" s="54"/>
+      <c r="D209" s="53">
         <v>210</v>
       </c>
-      <c r="E209" s="50" t="s">
+      <c r="E209" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F209" s="39" t="s">
-        <v>518</v>
-      </c>
-      <c r="G209" s="39" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="55"/>
-      <c r="B210" s="66"/>
-      <c r="C210" s="66"/>
-      <c r="D210" s="49">
+      <c r="F209" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="G209" s="45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="39"/>
+      <c r="B210" s="54"/>
+      <c r="C210" s="54"/>
+      <c r="D210" s="53">
         <v>211</v>
       </c>
-      <c r="E210" s="50" t="s">
+      <c r="E210" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F210" s="51" t="s">
+      <c r="F210" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="G210" s="51" t="s">
+      <c r="G210" s="45" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="55"/>
-      <c r="B211" s="66"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="49">
+    <row r="211" spans="1:7">
+      <c r="A211" s="39"/>
+      <c r="B211" s="54"/>
+      <c r="C211" s="54"/>
+      <c r="D211" s="53">
         <v>212</v>
       </c>
-      <c r="E211" s="50" t="s">
+      <c r="E211" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F211" s="51" t="s">
+      <c r="F211" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="G211" s="51" t="s">
+      <c r="G211" s="45" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="56"/>
-      <c r="B212" s="67"/>
-      <c r="C212" s="67"/>
-      <c r="D212" s="49">
+    <row r="212" spans="1:7">
+      <c r="A212" s="40"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="55"/>
+      <c r="D212" s="53">
         <v>213</v>
       </c>
-      <c r="E212" s="50" t="s">
+      <c r="E212" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F212" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="G212" s="39" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="47"/>
+      <c r="F212" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G212" s="45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="56"/>
       <c r="B213" s="37" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C213" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="D213" s="49">
+      <c r="D213" s="53">
         <v>214</v>
       </c>
       <c r="E213" s="37" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F213" s="37" t="s">
         <v>9</v>
@@ -7327,88 +7905,88 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="A185:A199"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A206:A212"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C153:C155"/>
     <mergeCell ref="C168:C174"/>
     <mergeCell ref="C175:C181"/>
     <mergeCell ref="C185:C199"/>
     <mergeCell ref="C200:C205"/>
     <mergeCell ref="C206:C212"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="B206:B212"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="A185:A199"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="A206:A212"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="32"/>
       <c r="B1" s="16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>187</v>
@@ -7417,7 +7995,7 @@
         <v>122</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>76</v>
@@ -7426,10 +8004,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="32"/>
       <c r="B2" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>187</v>
@@ -7438,7 +8016,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>76</v>
@@ -7447,10 +8025,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="32"/>
       <c r="B3" s="16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>187</v>
@@ -7459,7 +8037,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>107</v>
@@ -7468,10 +8046,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="32"/>
       <c r="B4" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>187</v>
@@ -7480,7 +8058,7 @@
         <v>125</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>107</v>
@@ -7489,10 +8067,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="32"/>
       <c r="B5" s="16" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>187</v>
@@ -7501,7 +8079,7 @@
         <v>126</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>269</v>
@@ -7510,10 +8088,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="32"/>
       <c r="B6" s="16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>187</v>
@@ -7522,7 +8100,7 @@
         <v>127</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>269</v>
@@ -7531,10 +8109,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="32"/>
       <c r="B7" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>187</v>
@@ -7543,7 +8121,7 @@
         <v>128</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>269</v>
@@ -7552,10 +8130,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="32"/>
       <c r="B8" s="16" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>187</v>
@@ -7564,7 +8142,7 @@
         <v>129</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>269</v>
@@ -7573,10 +8151,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="32"/>
       <c r="B9" s="16" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>187</v>
@@ -7585,19 +8163,19 @@
         <v>130</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>187</v>
@@ -7606,19 +8184,19 @@
         <v>131</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="32"/>
       <c r="B11" s="16" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>187</v>
@@ -7627,19 +8205,19 @@
         <v>132</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="32"/>
       <c r="B12" s="16" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>187</v>
@@ -7648,19 +8226,19 @@
         <v>133</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="32"/>
       <c r="B13" s="16" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>187</v>
@@ -7669,19 +8247,19 @@
         <v>134</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="32"/>
       <c r="B14" s="16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>187</v>
@@ -7690,19 +8268,19 @@
         <v>135</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="32"/>
       <c r="B15" s="16" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>187</v>
@@ -7711,19 +8289,19 @@
         <v>136</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="32"/>
       <c r="B16" s="16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>187</v>
@@ -7732,56 +8310,57 @@
         <v>137</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.27272727272727" customWidth="1"/>
+    <col min="2" max="2" width="27.0909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" ht="103.5" customHeight="1" spans="2:3">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7789,10 +8368,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" ht="75" customHeight="1" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7800,10 +8379,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" ht="34" customHeight="1" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7811,10 +8390,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" ht="78" customHeight="1" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7822,10 +8401,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7833,10 +8412,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7844,10 +8423,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7855,10 +8434,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" ht="42" customHeight="1" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7866,10 +8445,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7877,10 +8456,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" ht="14.75" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7888,10 +8467,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7899,10 +8478,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7910,10 +8489,10 @@
         <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -7921,10 +8500,10 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -7932,10 +8511,10 @@
         <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -7943,10 +8522,10 @@
         <v>86</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -7954,10 +8533,10 @@
         <v>88</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -7965,10 +8544,10 @@
         <v>91</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -7976,10 +8555,10 @@
         <v>103</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -7987,10 +8566,10 @@
         <v>93</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -7998,10 +8577,10 @@
         <v>84</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -8009,10 +8588,10 @@
         <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -8020,10 +8599,10 @@
         <v>114</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -8031,10 +8610,10 @@
         <v>115</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -8042,10 +8621,10 @@
         <v>116</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -8053,10 +8632,10 @@
         <v>118</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -8064,10 +8643,10 @@
         <v>128</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -8075,10 +8654,10 @@
         <v>119</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -8086,10 +8665,10 @@
         <v>135</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -8097,10 +8676,10 @@
         <v>144</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -8108,10 +8687,10 @@
         <v>146</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -8119,10 +8698,10 @@
         <v>148</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -8130,10 +8709,10 @@
         <v>150</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -8141,10 +8720,10 @@
         <v>152</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -8152,10 +8731,10 @@
         <v>153</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -8163,10 +8742,10 @@
         <v>72</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -8174,32 +8753,32 @@
         <v>141</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8207,10 +8786,10 @@
         <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8218,238 +8797,240 @@
         <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" customWidth="1"/>
-    <col min="5" max="5" width="27.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="24.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="21.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="27.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>376</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="18"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="18"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="18"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="18"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="38.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.0909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -8485,12 +9066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -8526,12 +9107,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="19" customHeight="1" spans="1:13">
       <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -8567,12 +9148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -8608,12 +9189,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8649,12 +9230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -8690,12 +9271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -8731,12 +9312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -8772,12 +9353,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -8813,12 +9394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -8854,12 +9435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -8896,46 +9477,47 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -8955,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
@@ -8975,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -8995,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
@@ -9015,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -9035,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
@@ -9055,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>66</v>
       </c>
@@ -9076,7 +9658,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
@@ -9097,7 +9679,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
@@ -9118,7 +9700,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>86</v>
       </c>
@@ -9138,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
         <v>115</v>
       </c>
@@ -9158,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>95</v>
       </c>
@@ -9178,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
@@ -9198,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>99</v>
       </c>
@@ -9218,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
         <v>120</v>
       </c>
@@ -9238,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
         <v>122</v>
       </c>
@@ -9258,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
         <v>124</v>
       </c>
@@ -9278,7 +9860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
         <v>131</v>
       </c>
@@ -9298,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="12" t="s">
         <v>132</v>
       </c>
@@ -9318,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="12" t="s">
         <v>133</v>
       </c>
@@ -9338,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="12" t="s">
         <v>134</v>
       </c>
@@ -9358,9 +9940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B23" s="13">
         <v>3</v>
@@ -9378,9 +9960,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="14.5" customHeight="1" spans="1:6">
       <c r="A24" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B24" s="13">
         <v>3</v>
@@ -9398,9 +9980,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="14.5" customHeight="1" spans="1:6">
       <c r="A25" s="12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B25" s="13">
         <v>0</v>
@@ -9418,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="14.5" customHeight="1" spans="1:6">
       <c r="A26" s="12" t="s">
         <v>50</v>
       </c>
@@ -9438,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="14.5" customHeight="1" spans="1:6">
       <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
@@ -9458,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="14.5" customHeight="1" spans="1:6">
       <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
@@ -9478,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="14.5" customHeight="1" spans="1:6">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -9498,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="14.5" customHeight="1" spans="1:6">
       <c r="A30" s="12" t="s">
         <v>49</v>
       </c>
@@ -9518,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="14.5" customHeight="1" spans="1:6">
       <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
@@ -9538,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="14.5" customHeight="1" spans="1:6">
       <c r="A32" s="12" t="s">
         <v>60</v>
       </c>
@@ -9558,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="14.5" customHeight="1" spans="1:6">
       <c r="A33" s="12" t="s">
         <v>56</v>
       </c>
@@ -9578,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="14.5" customHeight="1" spans="1:6">
       <c r="A34" s="12" t="s">
         <v>137</v>
       </c>
@@ -9598,9 +10180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="14.5" customHeight="1" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B35" s="13">
         <v>5</v>
@@ -9618,9 +10200,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="14.5" customHeight="1" spans="1:6">
       <c r="A36" s="14" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B36" s="13">
         <v>5</v>
@@ -9638,9 +10220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="14.5" customHeight="1" spans="1:6">
       <c r="A37" s="14" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B37" s="13">
         <v>3</v>
@@ -9658,9 +10240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="14.5" customHeight="1" spans="1:6">
       <c r="A38" s="14" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B38" s="13">
         <v>3</v>
@@ -9678,9 +10260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="14.5" customHeight="1" spans="1:6">
       <c r="A39" s="14" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B39" s="13">
         <v>3</v>
@@ -9698,9 +10280,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="14.5" customHeight="1" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B40" s="13">
         <v>5</v>
@@ -9718,9 +10300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="14.5" customHeight="1" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B41" s="13">
         <v>5</v>
@@ -9738,9 +10320,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="14.5" customHeight="1" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B42" s="13">
         <v>3</v>
@@ -9758,9 +10340,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="14.5" customHeight="1" spans="1:6">
       <c r="A43" s="14" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B43" s="13">
         <v>3</v>
@@ -9778,9 +10360,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="14.5" customHeight="1" spans="1:6">
       <c r="A44" s="14" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B44" s="13">
         <v>3</v>
@@ -9798,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="14.5" customHeight="1" spans="1:6">
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
@@ -9818,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="14.5" customHeight="1" spans="1:6">
       <c r="A46" s="14" t="s">
         <v>113</v>
       </c>
@@ -9838,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="14.5" customHeight="1" spans="1:6">
       <c r="A47" s="14" t="s">
         <v>135</v>
       </c>
@@ -9858,9 +10440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="14.5" customHeight="1" spans="1:6">
       <c r="A48" s="14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B48" s="13">
         <v>3</v>
@@ -9878,9 +10460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="14.5" customHeight="1" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B49" s="13">
         <v>3</v>
@@ -9898,9 +10480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="14.5" customHeight="1" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B50" s="13">
         <v>3</v>
@@ -9918,9 +10500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="14.5" customHeight="1" spans="1:6">
       <c r="A51" s="14" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B51" s="13">
         <v>3</v>
@@ -9938,9 +10520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="14.5" customHeight="1" spans="1:6">
       <c r="A52" s="14" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B52" s="13">
         <v>3</v>
@@ -9958,9 +10540,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="14.5" customHeight="1" spans="1:6">
       <c r="A53" s="14" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B53" s="13">
         <v>3</v>
@@ -9978,9 +10560,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="14.5" customHeight="1" spans="1:6">
       <c r="A54" s="14" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B54" s="13">
         <v>3</v>
@@ -9998,9 +10580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="14.5" customHeight="1" spans="1:6">
       <c r="A55" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B55" s="13">
         <v>3</v>
@@ -10018,9 +10600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="14.5" customHeight="1" spans="1:6">
       <c r="A56" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B56" s="13">
         <v>3</v>
@@ -10038,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="14.5" customHeight="1" spans="1:6">
       <c r="A57" s="14" t="s">
         <v>173</v>
       </c>
@@ -10058,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="14.5" customHeight="1" spans="1:6">
       <c r="A58" s="14" t="s">
         <v>175</v>
       </c>
@@ -10078,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="14.5" customHeight="1" spans="1:6">
       <c r="A59" s="14" t="s">
         <v>176</v>
       </c>
@@ -10098,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="14.5" customHeight="1" spans="1:6">
       <c r="A60" s="14" t="s">
         <v>177</v>
       </c>
@@ -10118,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="14.5" customHeight="1" spans="1:6">
       <c r="A61" s="14" t="s">
         <v>178</v>
       </c>
@@ -10138,9 +10720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="14.5" customHeight="1" spans="1:6">
       <c r="A62" s="14" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B62" s="13">
         <v>3</v>
@@ -10158,9 +10740,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="14.5" customHeight="1" spans="1:6">
       <c r="A63" s="14" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B63" s="13">
         <v>3</v>
@@ -10178,9 +10760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="14.5" customHeight="1" spans="1:6">
       <c r="A64" s="14" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B64" s="13">
         <v>3</v>
@@ -10198,9 +10780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="14.5" customHeight="1" spans="1:6">
       <c r="A65" s="14" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B65" s="13">
         <v>3</v>
@@ -10218,9 +10800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="14.5" customHeight="1" spans="1:6">
       <c r="A66" s="14" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B66" s="13">
         <v>3</v>
@@ -10238,9 +10820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="14.5" customHeight="1" spans="1:6">
       <c r="A67" s="14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B67" s="13">
         <v>3</v>
@@ -10258,9 +10840,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="14.5" customHeight="1" spans="1:6">
       <c r="A68" s="14" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B68" s="13">
         <v>3</v>
@@ -10278,9 +10860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="14.5" customHeight="1" spans="1:6">
       <c r="A69" s="14" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B69" s="13">
         <v>3</v>
@@ -10298,9 +10880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="14.5" customHeight="1" spans="1:6">
       <c r="A70" s="14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B70" s="13">
         <v>3</v>
@@ -10318,9 +10900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="14.5" customHeight="1" spans="1:6">
       <c r="A71" s="14" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B71" s="13">
         <v>3</v>
@@ -10338,9 +10920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="14.5" customHeight="1" spans="1:6">
       <c r="A72" s="14" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B72" s="13">
         <v>3</v>
@@ -10358,9 +10940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="14.5" customHeight="1" spans="1:6">
       <c r="A73" s="14" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B73" s="13">
         <v>3</v>
@@ -10378,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="14.5" customHeight="1" spans="1:6">
       <c r="A74" s="16" t="s">
         <v>145</v>
       </c>
@@ -10398,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="14.5" customHeight="1" spans="1:6">
       <c r="A75" s="16" t="s">
         <v>147</v>
       </c>
@@ -10418,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="14.5" customHeight="1" spans="1:6">
       <c r="A76" s="16" t="s">
         <v>149</v>
       </c>
@@ -10438,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="14.5" customHeight="1" spans="1:6">
       <c r="A77" s="17" t="s">
         <v>161</v>
       </c>
@@ -10458,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="14" t="s">
         <v>220</v>
       </c>
@@ -10478,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="18" t="s">
         <v>222</v>
       </c>
@@ -10498,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="18" t="s">
         <v>223</v>
       </c>
@@ -10518,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="14" t="s">
         <v>239</v>
       </c>
@@ -10538,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="14" t="s">
         <v>240</v>
       </c>
@@ -10558,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="14" t="s">
         <v>242</v>
       </c>
@@ -10578,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="14" t="s">
         <v>243</v>
       </c>
@@ -10598,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="14" t="s">
         <v>245</v>
       </c>
@@ -10618,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="14" t="s">
         <v>247</v>
       </c>
@@ -10638,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="14" t="s">
         <v>249</v>
       </c>
@@ -10658,9 +11240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="22" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B88" s="20">
         <v>0</v>
@@ -10678,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="21" t="s">
         <v>258</v>
       </c>
@@ -10698,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="21" t="s">
         <v>259</v>
       </c>
@@ -10719,52 +11301,53 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" style="2" customWidth="1"/>
-    <col min="4" max="12" width="13.90625" customWidth="1"/>
-    <col min="14" max="14" width="15.90625" customWidth="1"/>
-    <col min="15" max="15" width="18.90625" customWidth="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1"/>
-    <col min="18" max="18" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="9.36328125" customWidth="1"/>
-    <col min="20" max="20" width="13.26953125" customWidth="1"/>
-    <col min="21" max="21" width="23.36328125" customWidth="1"/>
-    <col min="24" max="24" width="13.453125" customWidth="1"/>
-    <col min="25" max="25" width="18.90625" customWidth="1"/>
-    <col min="26" max="26" width="15.90625" customWidth="1"/>
-    <col min="27" max="27" width="16.453125" customWidth="1"/>
-    <col min="28" max="28" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="13.9090909090909" style="2" customWidth="1"/>
+    <col min="4" max="12" width="13.9090909090909" customWidth="1"/>
+    <col min="14" max="14" width="15.9090909090909" customWidth="1"/>
+    <col min="15" max="15" width="18.9090909090909" customWidth="1"/>
+    <col min="17" max="17" width="10.7272727272727" customWidth="1"/>
+    <col min="18" max="18" width="11.6363636363636" customWidth="1"/>
+    <col min="19" max="19" width="9.36363636363636" customWidth="1"/>
+    <col min="20" max="20" width="13.2727272727273" customWidth="1"/>
+    <col min="21" max="21" width="23.3636363636364" customWidth="1"/>
+    <col min="24" max="24" width="13.4545454545455" customWidth="1"/>
+    <col min="25" max="25" width="18.9090909090909" customWidth="1"/>
+    <col min="26" max="26" width="15.9090909090909" customWidth="1"/>
+    <col min="27" max="27" width="16.4545454545455" customWidth="1"/>
+    <col min="28" max="28" width="13.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E1" s="3">
         <v>23</v>
@@ -10839,9 +11422,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>76</v>
@@ -10850,7 +11433,7 @@
         <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -10862,54 +11445,54 @@
       <c r="L2" s="5"/>
       <c r="M2" s="10"/>
       <c r="N2" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>107</v>
@@ -10918,78 +11501,78 @@
         <v>107</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="W3" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AA3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AB3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>269</v>
@@ -11007,15 +11590,15 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -11027,15 +11610,15 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -11047,15 +11630,15 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="1" customFormat="1" spans="1:28">
       <c r="A7" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
@@ -11122,15 +11705,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8">
@@ -11200,15 +11783,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D9" s="3">
         <v>294947</v>
@@ -11280,15 +11863,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D10" s="3">
         <v>557315</v>
@@ -11360,15 +11943,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D11" s="3">
         <v>1081603</v>
@@ -11440,15 +12023,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D12" s="3">
         <v>2130019</v>
@@ -11520,15 +12103,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D13" s="3">
         <v>2130947</v>
@@ -11600,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -11608,7 +12191,7 @@
         <v>266</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D14" s="3">
         <v>2059</v>
@@ -11680,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="3" t="s">
         <v>117</v>
       </c>
@@ -11688,7 +12271,7 @@
         <v>266</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D15" s="3">
         <v>8451</v>
@@ -11762,15 +12345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D16" s="3">
         <v>4137</v>
@@ -11848,15 +12431,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D17" s="3">
         <v>17665</v>
@@ -11934,18 +12517,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>215</v>
       </c>
@@ -11956,51 +12539,51 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>191</v>
       </c>
@@ -12008,10 +12591,10 @@
         <v>266</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>192</v>
       </c>
@@ -12019,10 +12602,10 @@
         <v>266</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>193</v>
       </c>
@@ -12030,10 +12613,10 @@
         <v>266</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
@@ -12041,10 +12624,10 @@
         <v>266</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>195</v>
       </c>
@@ -12052,10 +12635,10 @@
         <v>269</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>196</v>
       </c>
@@ -12063,200 +12646,200 @@
         <v>269</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D34">
         <v>98315</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D35">
         <v>163851</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D36">
         <v>294923</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D37">
         <v>557067</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
         <v>237</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/project/Integrate_120KW_huawei_20KW/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_huawei_20KW/IntegrateConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\mcmc\platDemo\platDemo\config\project\Integrate_120KW_huawei_20KW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6DE95B3-7BCF-4B3B-9EB9-2427D63AF283}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="7730" tabRatio="667" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="529">
   <si>
     <t>组序号</t>
   </si>
@@ -120,6 +126,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -129,6 +136,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>efault</t>
@@ -140,6 +148,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -149,6 +158,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -160,6 +170,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -169,6 +180,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>20V</t>
@@ -303,6 +315,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -313,6 +326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -323,6 +337,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,6 +353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,6 +364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -358,6 +375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -373,6 +391,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,6 +402,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,6 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -477,6 +498,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>u</t>
@@ -486,6 +508,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nlock</t>
@@ -500,6 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -510,6 +534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -520,6 +545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -535,6 +561,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -545,6 +572,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -555,6 +583,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -570,6 +599,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,6 +610,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,6 +621,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,6 +730,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -707,6 +740,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>elay</t>
@@ -751,6 +785,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -760,6 +795,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>PP测试</t>
@@ -798,6 +834,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Z</t>
@@ -807,6 +844,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -881,6 +919,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -890,6 +929,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>IBO</t>
@@ -1204,6 +1244,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1213,6 +1254,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x0710</t>
@@ -1227,6 +1269,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1236,6 +1279,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x0706</t>
@@ -1253,6 +1297,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1262,6 +1307,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x0707</t>
@@ -1276,6 +1322,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1285,6 +1332,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x070A</t>
@@ -1329,6 +1377,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1338,6 +1387,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1349,6 +1399,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9</t>
@@ -1358,6 +1409,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>50</t>
@@ -1450,6 +1502,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -1459,6 +1512,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
@@ -1502,6 +1556,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>96/97/98/99/TP1/TP2/TP3/TP4相连对地耐压DC3000V，60秒，漏电流不大于10mA</t>
@@ -1512,6 +1567,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（DCW M2，DC 3kV,10.00mA,60s）</t>
@@ -1523,6 +1579,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">两个枪输出DC+/DC-（4个点）分别对地，绝缘电阻应大于10M欧   </t>
@@ -1533,6 +1590,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(IR M3，1KV)</t>
@@ -1544,6 +1602,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">枪DC+/DC-输出分别对地，耐压AC2500V，60秒，漏电流不大于5mA </t>
@@ -1554,6 +1613,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -1564,6 +1624,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ACW M1，AC 2.5kV,5mA,60s）</t>
@@ -1707,6 +1768,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0x0000</t>
@@ -1716,6 +1778,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -1725,6 +1788,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>001</t>
@@ -1742,6 +1806,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>T</t>
@@ -1751,6 +1816,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YPE</t>
@@ -1795,6 +1861,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -1804,6 +1871,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -1941,6 +2009,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -1950,6 +2019,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I掩码</t>
@@ -1961,6 +2031,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -1970,6 +2041,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O掩码</t>
@@ -1987,6 +2059,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -1996,6 +2069,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -2013,6 +2087,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2022,6 +2097,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>7K8</t>
@@ -2039,6 +2115,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2048,6 +2125,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9K10</t>
@@ -2059,6 +2137,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2068,6 +2147,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5K6</t>
@@ -2082,6 +2162,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2091,6 +2172,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -2102,6 +2184,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2111,6 +2194,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -2122,6 +2206,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2131,6 +2216,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -2142,6 +2228,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K</t>
@@ -2151,6 +2238,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -2162,6 +2250,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -2171,6 +2260,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -2191,6 +2281,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -2200,6 +2291,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -2244,6 +2336,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>枪2</t>
@@ -2253,6 +2346,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K3K4</t>
@@ -2264,6 +2358,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>枪2</t>
@@ -2273,6 +2368,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K1K2</t>
@@ -2287,6 +2383,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>枪1</t>
@@ -2296,6 +2393,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K3K4</t>
@@ -2307,6 +2405,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>枪1</t>
@@ -2316,6 +2415,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>K1K2</t>
@@ -2360,6 +2460,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0x</t>
@@ -2369,6 +2470,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>080B</t>
@@ -2410,6 +2512,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -2419,6 +2522,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>x0021</t>
@@ -2434,9 +2538,6 @@
     <t>0x04800B</t>
   </si>
   <si>
-    <t>0x08800B</t>
-  </si>
-  <si>
     <t>0x208103</t>
   </si>
   <si>
@@ -2447,19 +2548,77 @@
   </si>
   <si>
     <t>0x048103</t>
+  </si>
+  <si>
+    <t>塑壳断路器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑壳交流输入线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机信号线束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12V电源模块 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电模块线束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeinput</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x108103</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x088</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>103</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注意华为120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>KW因为只有6个模块，所以第四个模块供给枪2</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2470,186 +2629,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2657,10 +2679,24 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2697,194 +2733,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2960,250 +2810,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -3211,7 +2832,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3248,10 +2869,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3263,9 +2884,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3287,10 +2908,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3314,10 +2935,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3332,115 +3019,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3698,31 +3308,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.09090909090909" customWidth="1"/>
-    <col min="2" max="2" width="34.2727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.7272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="57.4545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="57.453125" style="2" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7272727272727" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" spans="1:7">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -3768,7 +3378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -3791,7 +3401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>1</v>
       </c>
@@ -3814,7 +3424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>1</v>
       </c>
@@ -3837,7 +3447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>1</v>
       </c>
@@ -3860,7 +3470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>1</v>
       </c>
@@ -3883,7 +3493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>1</v>
       </c>
@@ -3906,7 +3516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>1</v>
       </c>
@@ -3929,7 +3539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>1</v>
       </c>
@@ -3952,7 +3562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>1</v>
       </c>
@@ -3975,7 +3585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>1</v>
       </c>
@@ -3998,7 +3608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>1</v>
       </c>
@@ -4021,7 +3631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>1</v>
       </c>
@@ -4044,12 +3654,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="22">
@@ -4065,10 +3675,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -4082,10 +3692,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -4099,10 +3709,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -4116,10 +3726,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -4133,7 +3743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>1</v>
       </c>
@@ -4156,7 +3766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>1</v>
       </c>
@@ -4179,12 +3789,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="50" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="22">
@@ -4200,10 +3810,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -4217,10 +3827,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -4234,10 +3844,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -4251,10 +3861,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -4268,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="16" t="s">
         <v>42</v>
@@ -4289,7 +3899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="23" t="s">
         <v>43</v>
@@ -4310,12 +3920,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="63"/>
+      <c r="B29" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="63" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="22">
@@ -4331,10 +3941,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -4348,10 +3958,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -4365,10 +3975,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -4382,10 +3992,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="22">
         <v>32</v>
       </c>
@@ -4399,12 +4009,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="22">
@@ -4420,10 +4030,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="22">
         <v>34</v>
       </c>
@@ -4437,12 +4047,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="57" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="22">
@@ -4458,10 +4068,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="22">
         <v>36</v>
       </c>
@@ -4475,12 +4085,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="37"/>
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="58"/>
+      <c r="B38" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="22">
@@ -4496,10 +4106,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="22">
         <v>38</v>
       </c>
@@ -4513,18 +4123,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="22">
         <v>39</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="38" t="s">
         <v>62</v>
       </c>
       <c r="F40" s="37" t="s">
@@ -4534,14 +4144,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="38" t="s">
         <v>64</v>
       </c>
       <c r="F41" s="37" t="s">
@@ -4551,14 +4161,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F42" s="16" t="s">
@@ -4568,14 +4178,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="38" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="37" t="s">
@@ -4585,10 +4195,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="22">
         <v>43</v>
       </c>
@@ -4602,12 +4212,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="37">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="58">
         <v>13</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37" t="s">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="22">
@@ -4623,7 +4233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="37"/>
       <c r="B46" s="16" t="s">
         <v>69</v>
@@ -4644,7 +4254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="37"/>
       <c r="B47" s="16" t="s">
         <v>71</v>
@@ -4665,7 +4275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" ht="13.5" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37"/>
       <c r="B48" s="15" t="s">
         <v>72</v>
@@ -4686,12 +4296,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="22">
@@ -4707,10 +4317,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -4724,10 +4334,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -4741,7 +4351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="37"/>
       <c r="B52" s="29" t="s">
         <v>81</v>
@@ -4762,7 +4372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="37"/>
       <c r="B53" s="29" t="s">
         <v>84</v>
@@ -4783,7 +4393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" ht="17.5" customHeight="1" spans="1:7">
+    <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37"/>
       <c r="B54" s="16" t="s">
         <v>86</v>
@@ -4804,7 +4414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="37"/>
       <c r="B55" s="16" t="s">
         <v>88</v>
@@ -4825,12 +4435,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="50" t="s">
         <v>92</v>
       </c>
       <c r="D56" s="22">
@@ -4846,44 +4456,44 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="22">
         <v>56</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="45" t="s">
+      <c r="F57" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="22">
         <v>57</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F58" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="45" t="s">
+      <c r="F58" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="22">
         <v>58</v>
       </c>
@@ -4897,44 +4507,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="56"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="22">
         <v>59</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F60" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="45" t="s">
+      <c r="F60" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="22">
         <v>60</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="45" t="s">
+      <c r="F61" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="22">
         <v>61</v>
       </c>
@@ -4948,7 +4558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="16" t="s">
         <v>103</v>
@@ -4969,7 +4579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="37"/>
       <c r="B64" s="16" t="s">
         <v>93</v>
@@ -4990,12 +4600,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="22">
@@ -5011,10 +4621,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
       <c r="D66" s="22">
         <v>65</v>
       </c>
@@ -5028,10 +4638,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" ht="17.5" customHeight="1" spans="1:7">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
+    <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
       <c r="D67" s="22">
         <v>66</v>
       </c>
@@ -5045,7 +4655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" s="29" t="s">
         <v>112</v>
@@ -5066,7 +4676,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" s="29" t="s">
         <v>114</v>
@@ -5087,7 +4697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="37"/>
       <c r="B70" s="16" t="s">
         <v>115</v>
@@ -5108,7 +4718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="16" t="s">
         <v>116</v>
@@ -5129,12 +4739,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="50"/>
+      <c r="B72" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="50" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="22">
@@ -5150,44 +4760,44 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="56"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="45" t="s">
+      <c r="F73" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="45" t="s">
+      <c r="G73" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="56"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="22">
         <v>73</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="45" t="s">
+      <c r="F74" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G74" s="45" t="s">
+      <c r="G74" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="56"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="22">
         <v>74</v>
       </c>
@@ -5201,44 +4811,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="56"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="22">
         <v>75</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="45" t="s">
+      <c r="F76" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="45" t="s">
+      <c r="G76" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="56"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="22">
         <v>76</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="F77" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G77" s="45" t="s">
+      <c r="G77" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="56"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="22">
         <v>77</v>
       </c>
@@ -5252,7 +4862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="37"/>
       <c r="B79" s="16" t="s">
         <v>128</v>
@@ -5273,7 +4883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="37"/>
       <c r="B80" s="16" t="s">
         <v>119</v>
@@ -5294,18 +4904,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="57"/>
+      <c r="B81" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="57" t="s">
         <v>130</v>
       </c>
       <c r="D81" s="22">
         <v>80</v>
       </c>
-      <c r="E81" s="46" t="s">
+      <c r="E81" s="40" t="s">
         <v>131</v>
       </c>
       <c r="F81" s="37" t="s">
@@ -5315,14 +4925,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="22">
         <v>81</v>
       </c>
-      <c r="E82" s="46" t="s">
+      <c r="E82" s="40" t="s">
         <v>132</v>
       </c>
       <c r="F82" s="37" t="s">
@@ -5332,14 +4942,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
       <c r="D83" s="22">
         <v>82</v>
       </c>
-      <c r="E83" s="46" t="s">
+      <c r="E83" s="40" t="s">
         <v>133</v>
       </c>
       <c r="F83" s="37" t="s">
@@ -5349,14 +4959,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="22">
         <v>83</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="40" t="s">
         <v>134</v>
       </c>
       <c r="F84" s="37" t="s">
@@ -5366,7 +4976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="37"/>
       <c r="B85" s="16" t="s">
         <v>135</v>
@@ -5387,7 +4997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="37"/>
       <c r="B86" s="16" t="s">
         <v>136</v>
@@ -5408,7 +5018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="37"/>
       <c r="B87" s="16" t="s">
         <v>137</v>
@@ -5429,7 +5039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="37"/>
       <c r="B88" s="16" t="s">
         <v>138</v>
@@ -5450,7 +5060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="37"/>
       <c r="B89" s="16" t="s">
         <v>141</v>
@@ -5471,7 +5081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="37"/>
       <c r="B90" s="16" t="s">
         <v>142</v>
@@ -5492,7 +5102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="16" t="s">
         <v>144</v>
@@ -5513,7 +5123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="16" t="s">
         <v>146</v>
@@ -5534,7 +5144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="16" t="s">
         <v>148</v>
@@ -5555,7 +5165,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="16" t="s">
         <v>150</v>
@@ -5576,7 +5186,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="16" t="s">
         <v>152</v>
@@ -5597,7 +5207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="16" t="s">
         <v>153</v>
@@ -5618,7 +5228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22" t="s">
         <v>154</v>
@@ -5639,7 +5249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22" t="s">
         <v>156</v>
@@ -5660,12 +5270,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+      <c r="B99" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="22">
@@ -5681,10 +5291,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
       <c r="D100" s="22">
         <v>99</v>
       </c>
@@ -5698,10 +5308,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
       <c r="D101" s="22">
         <v>100</v>
       </c>
@@ -5715,12 +5325,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="47"/>
-      <c r="B102" s="48" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+      <c r="B102" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C102" s="48" t="s">
+      <c r="C102" s="42" t="s">
         <v>162</v>
       </c>
       <c r="D102" s="22">
@@ -5736,12 +5346,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="59"/>
+      <c r="B103" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="59" t="s">
         <v>45</v>
       </c>
       <c r="D103" s="22">
@@ -5757,10 +5367,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="48"/>
-      <c r="B104" s="48"/>
-      <c r="C104" s="48"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
       <c r="D104" s="22">
         <v>103</v>
       </c>
@@ -5774,10 +5384,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="48"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="60"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="60"/>
       <c r="D105" s="22">
         <v>104</v>
       </c>
@@ -5791,8 +5401,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" s="33" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A106" s="48"/>
+    <row r="106" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="42"/>
       <c r="B106" s="16" t="s">
         <v>164</v>
       </c>
@@ -5812,8 +5422,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" s="33" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A107" s="48"/>
+    <row r="107" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="42"/>
       <c r="B107" s="22" t="s">
         <v>166</v>
       </c>
@@ -5833,8 +5443,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" s="33" customFormat="1" spans="1:7">
-      <c r="A108" s="48"/>
+    <row r="108" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42"/>
       <c r="B108" s="22" t="s">
         <v>168</v>
       </c>
@@ -5854,8 +5464,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" s="33" customFormat="1" spans="1:7">
-      <c r="A109" s="48"/>
+    <row r="109" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="42"/>
       <c r="B109" s="22" t="s">
         <v>169</v>
       </c>
@@ -5875,8 +5485,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" s="33" customFormat="1" spans="1:7">
-      <c r="A110" s="48"/>
+    <row r="110" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="42"/>
       <c r="B110" s="22" t="s">
         <v>170</v>
       </c>
@@ -5896,8 +5506,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" s="33" customFormat="1" ht="15.65" customHeight="1" spans="1:7">
-      <c r="A111" s="48"/>
+    <row r="111" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="42"/>
       <c r="B111" s="16" t="s">
         <v>171</v>
       </c>
@@ -5917,8 +5527,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" s="33" customFormat="1" ht="15.65" customHeight="1" spans="1:7">
-      <c r="A112" s="48"/>
+    <row r="112" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="42"/>
       <c r="B112" s="16" t="s">
         <v>172</v>
       </c>
@@ -5938,7 +5548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
       <c r="B113" s="16" t="s">
         <v>173</v>
@@ -5959,7 +5569,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
       <c r="B114" s="16" t="s">
         <v>175</v>
@@ -5980,7 +5590,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
       <c r="B115" s="16" t="s">
         <v>176</v>
@@ -6001,7 +5611,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
       <c r="B116" s="16" t="s">
         <v>177</v>
@@ -6022,7 +5632,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="32"/>
       <c r="B117" s="16" t="s">
         <v>178</v>
@@ -6043,7 +5653,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="32"/>
       <c r="B118" s="16" t="s">
         <v>179</v>
@@ -6064,7 +5674,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="32"/>
       <c r="B119" s="16" t="s">
         <v>181</v>
@@ -6085,7 +5695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
         <v>183</v>
@@ -6106,7 +5716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
         <v>184</v>
@@ -6127,7 +5737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
         <v>185</v>
@@ -6148,7 +5758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" ht="13.5" customHeight="1" spans="1:7">
+    <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="16" t="s">
         <v>186</v>
@@ -6169,7 +5779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" ht="13.5" customHeight="1" spans="1:7">
+    <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="16" t="s">
         <v>188</v>
@@ -6190,7 +5800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="16" t="s">
         <v>189</v>
@@ -6211,7 +5821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="16" t="s">
         <v>190</v>
@@ -6232,7 +5842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="16" t="s">
         <v>191</v>
@@ -6253,7 +5863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="16" t="s">
         <v>192</v>
@@ -6274,7 +5884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16" t="s">
         <v>193</v>
@@ -6295,7 +5905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="16" t="s">
         <v>194</v>
@@ -6316,7 +5926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
         <v>195</v>
@@ -6337,7 +5947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
         <v>196</v>
@@ -6358,7 +5968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="16" t="s">
         <v>197</v>
@@ -6379,7 +5989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="16" t="s">
         <v>198</v>
@@ -6400,7 +6010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="16" t="s">
         <v>199</v>
@@ -6421,7 +6031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="16" t="s">
         <v>200</v>
@@ -6442,7 +6052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="16" t="s">
         <v>201</v>
@@ -6463,7 +6073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
         <v>202</v>
@@ -6484,7 +6094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
         <v>203</v>
@@ -6505,7 +6115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
         <v>204</v>
@@ -6526,7 +6136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="16" t="s">
         <v>205</v>
@@ -6547,7 +6157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="16" t="s">
         <v>206</v>
@@ -6568,7 +6178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="16" t="s">
         <v>207</v>
@@ -6589,7 +6199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
         <v>208</v>
@@ -6610,7 +6220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="16" t="s">
         <v>209</v>
@@ -6631,7 +6241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="16" t="s">
         <v>210</v>
@@ -6652,7 +6262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="16" t="s">
         <v>211</v>
@@ -6673,7 +6283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="16" t="s">
         <v>212</v>
@@ -6694,7 +6304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="16" t="s">
         <v>213</v>
@@ -6715,7 +6325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="16" t="s">
         <v>214</v>
@@ -6736,7 +6346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="16" t="s">
         <v>215</v>
@@ -6757,7 +6367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
         <v>216</v>
@@ -6778,70 +6388,70 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="49"/>
-      <c r="B153" s="49" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="66"/>
+      <c r="B153" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="C153" s="37" t="s">
+      <c r="C153" s="58" t="s">
         <v>219</v>
       </c>
       <c r="D153" s="16">
         <v>152</v>
       </c>
-      <c r="E153" s="46" t="s">
+      <c r="E153" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="F153" s="45" t="s">
+      <c r="F153" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G153" s="45" t="s">
+      <c r="G153" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="49"/>
-      <c r="B154" s="49"/>
-      <c r="C154" s="37"/>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="66"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="16">
         <v>153</v>
       </c>
-      <c r="E154" s="50" t="s">
+      <c r="E154" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="F154" s="45" t="s">
+      <c r="F154" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G154" s="45" t="s">
+      <c r="G154" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="49"/>
-      <c r="B155" s="49"/>
-      <c r="C155" s="37"/>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="66"/>
+      <c r="B155" s="66"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="16">
         <v>154</v>
       </c>
-      <c r="E155" s="50" t="s">
+      <c r="E155" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="F155" s="45" t="s">
+      <c r="F155" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G155" s="45" t="s">
+      <c r="G155" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="51"/>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="44"/>
       <c r="B156" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C156" s="52" t="s">
+      <c r="C156" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D156" s="53">
+      <c r="D156" s="46">
         <v>155</v>
       </c>
       <c r="E156" s="9" t="s">
@@ -6854,15 +6464,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="51"/>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="44"/>
       <c r="B157" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C157" s="52" t="s">
+      <c r="C157" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D157" s="53">
+      <c r="D157" s="46">
         <v>156</v>
       </c>
       <c r="E157" s="9" t="s">
@@ -6875,15 +6485,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="51"/>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="44"/>
       <c r="B158" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C158" s="52" t="s">
+      <c r="C158" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D158" s="53">
+      <c r="D158" s="46">
         <v>157</v>
       </c>
       <c r="E158" s="9" t="s">
@@ -6896,36 +6506,36 @@
         <v>226</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="51"/>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="44"/>
       <c r="B159" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C159" s="52" t="s">
+      <c r="C159" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D159" s="53">
+      <c r="D159" s="46">
         <v>158</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F159" s="16" t="s">
-        <v>40</v>
+      <c r="F159" s="68" t="s">
+        <v>525</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="51"/>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="44"/>
       <c r="B160" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="52" t="s">
+      <c r="C160" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D160" s="53">
+      <c r="D160" s="46">
         <v>159</v>
       </c>
       <c r="E160" s="9" t="s">
@@ -6938,15 +6548,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="51"/>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="44"/>
       <c r="B161" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C161" s="52" t="s">
+      <c r="C161" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D161" s="53">
+      <c r="D161" s="46">
         <v>160</v>
       </c>
       <c r="E161" s="9" t="s">
@@ -6959,15 +6569,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="51"/>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="44"/>
       <c r="B162" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="52" t="s">
+      <c r="C162" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D162" s="53">
+      <c r="D162" s="46">
         <v>161</v>
       </c>
       <c r="E162" s="9" t="s">
@@ -6980,15 +6590,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="51"/>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="44"/>
       <c r="B163" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C163" s="52" t="s">
+      <c r="C163" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D163" s="53">
+      <c r="D163" s="46">
         <v>162</v>
       </c>
       <c r="E163" s="9" t="s">
@@ -7001,15 +6611,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="51"/>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
       <c r="B164" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C164" s="52" t="s">
+      <c r="C164" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D164" s="53">
+      <c r="D164" s="46">
         <v>163</v>
       </c>
       <c r="E164" s="9" t="s">
@@ -7022,15 +6632,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="51"/>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
       <c r="B165" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C165" s="52" t="s">
+      <c r="C165" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D165" s="53">
+      <c r="D165" s="46">
         <v>164</v>
       </c>
       <c r="E165" s="9" t="s">
@@ -7043,15 +6653,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="51"/>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="44"/>
       <c r="B166" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="52" t="s">
+      <c r="C166" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D166" s="53">
+      <c r="D166" s="46">
         <v>165</v>
       </c>
       <c r="E166" s="9" t="s">
@@ -7064,15 +6674,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="51"/>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="44"/>
       <c r="B167" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C167" s="52" t="s">
+      <c r="C167" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="D167" s="53">
+      <c r="D167" s="46">
         <v>166</v>
       </c>
       <c r="E167" s="9" t="s">
@@ -7085,261 +6695,261 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="38"/>
-      <c r="B168" s="38" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="50"/>
+      <c r="B168" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C168" s="38" t="s">
+      <c r="C168" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D168" s="53">
+      <c r="D168" s="46">
         <v>167</v>
       </c>
       <c r="E168" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F168" s="45" t="s">
+      <c r="F168" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G168" s="45" t="s">
+      <c r="G168" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="39"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="54"/>
-      <c r="D169" s="53">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="56"/>
+      <c r="B169" s="51"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="46">
         <v>168</v>
       </c>
       <c r="E169" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F169" s="45" t="s">
+      <c r="F169" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="G169" s="45" t="s">
+      <c r="G169" s="39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="39"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="54"/>
-      <c r="D170" s="53">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="56"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="51"/>
+      <c r="D170" s="46">
         <v>169</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F170" s="45" t="s">
+      <c r="F170" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="G170" s="45" t="s">
+      <c r="G170" s="39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="39"/>
-      <c r="B171" s="54"/>
-      <c r="C171" s="54"/>
-      <c r="D171" s="53">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="56"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="51"/>
+      <c r="D171" s="46">
         <v>170</v>
       </c>
       <c r="E171" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F171" s="45" t="s">
+      <c r="F171" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="G171" s="45" t="s">
+      <c r="G171" s="39" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="39"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="53">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="56"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="51"/>
+      <c r="D172" s="46">
         <v>171</v>
       </c>
       <c r="E172" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F172" s="45" t="s">
+      <c r="F172" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="G172" s="45" t="s">
+      <c r="G172" s="39" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="39"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="54"/>
-      <c r="D173" s="53">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="56"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="51"/>
+      <c r="D173" s="46">
         <v>172</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F173" s="45" t="s">
+      <c r="F173" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="G173" s="45" t="s">
+      <c r="G173" s="39" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="40"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="55"/>
-      <c r="D174" s="53">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="62"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="52"/>
+      <c r="D174" s="46">
         <v>173</v>
       </c>
       <c r="E174" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F174" s="45" t="s">
+      <c r="F174" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="G174" s="45" t="s">
+      <c r="G174" s="39" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="38"/>
-      <c r="B175" s="38" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="50"/>
+      <c r="B175" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C175" s="38" t="s">
+      <c r="C175" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D175" s="53">
+      <c r="D175" s="46">
         <v>174</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F175" s="45" t="s">
+      <c r="F175" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G175" s="45" t="s">
+      <c r="G175" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="39"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="54"/>
-      <c r="D176" s="53">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="56"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="51"/>
+      <c r="D176" s="46">
         <v>175</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F176" s="45" t="s">
+      <c r="F176" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="G176" s="45" t="s">
+      <c r="G176" s="39" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="39"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="54"/>
-      <c r="D177" s="53">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="56"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="46">
         <v>176</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F177" s="45" t="s">
+      <c r="F177" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="G177" s="45" t="s">
+      <c r="G177" s="39" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="39"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="54"/>
-      <c r="D178" s="53">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="56"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="46">
         <v>177</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F178" s="45" t="s">
+      <c r="F178" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="G178" s="45" t="s">
+      <c r="G178" s="39" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="39"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="54"/>
-      <c r="D179" s="53">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="56"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="51"/>
+      <c r="D179" s="46">
         <v>178</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F179" s="45" t="s">
+      <c r="F179" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="G179" s="45" t="s">
+      <c r="G179" s="39" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="39"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="54"/>
-      <c r="D180" s="53">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="56"/>
+      <c r="B180" s="51"/>
+      <c r="C180" s="51"/>
+      <c r="D180" s="46">
         <v>179</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F180" s="45" t="s">
+      <c r="F180" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="G180" s="45" t="s">
+      <c r="G180" s="39" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="40"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="53">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="62"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="52"/>
+      <c r="D181" s="46">
         <v>180</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F181" s="45" t="s">
+      <c r="F181" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="G181" s="45" t="s">
+      <c r="G181" s="39" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="56"/>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="47"/>
       <c r="B182" s="16" t="s">
         <v>257</v>
       </c>
       <c r="C182" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D182" s="53">
+      <c r="D182" s="46">
         <v>181</v>
       </c>
       <c r="E182" s="16" t="s">
@@ -7352,15 +6962,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="56"/>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="47"/>
       <c r="B183" s="15" t="s">
         <v>258</v>
       </c>
       <c r="C183" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D183" s="53">
+      <c r="D183" s="46">
         <v>182</v>
       </c>
       <c r="E183" s="15" t="s">
@@ -7373,15 +6983,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="56"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="47"/>
       <c r="B184" s="37" t="s">
         <v>259</v>
       </c>
       <c r="C184" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D184" s="53">
+      <c r="D184" s="46">
         <v>183</v>
       </c>
       <c r="E184" s="37" t="s">
@@ -7394,32 +7004,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="57"/>
-      <c r="B185" s="38" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="67"/>
+      <c r="B185" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="C185" s="58" t="s">
+      <c r="C185" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="D185" s="53">
+      <c r="D185" s="46">
         <v>184</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F185" s="59" t="s">
+      <c r="F185" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="G185" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="39"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="53">
+      <c r="G185" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="56"/>
+      <c r="B186" s="51"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="46">
         <v>185</v>
       </c>
       <c r="E186" s="16" t="s">
@@ -7428,15 +7038,15 @@
       <c r="F186" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G186" s="45" t="s">
+      <c r="G186" s="39" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="39"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="53">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="56"/>
+      <c r="B187" s="51"/>
+      <c r="C187" s="54"/>
+      <c r="D187" s="46">
         <v>186</v>
       </c>
       <c r="E187" s="16" t="s">
@@ -7445,15 +7055,15 @@
       <c r="F187" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="G187" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="39"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="53">
+      <c r="G187" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="56"/>
+      <c r="B188" s="51"/>
+      <c r="C188" s="54"/>
+      <c r="D188" s="46">
         <v>187</v>
       </c>
       <c r="E188" s="16" t="s">
@@ -7462,15 +7072,15 @@
       <c r="F188" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G188" s="45" t="s">
+      <c r="G188" s="39" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="39"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="53">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="56"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="54"/>
+      <c r="D189" s="46">
         <v>188</v>
       </c>
       <c r="E189" s="16" t="s">
@@ -7479,15 +7089,15 @@
       <c r="F189" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="G189" s="45" t="s">
+      <c r="G189" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="39"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="53">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="56"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="54"/>
+      <c r="D190" s="46">
         <v>189</v>
       </c>
       <c r="E190" s="16" t="s">
@@ -7496,15 +7106,15 @@
       <c r="F190" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="G190" s="45" t="s">
+      <c r="G190" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="39"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="53">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="56"/>
+      <c r="B191" s="51"/>
+      <c r="C191" s="54"/>
+      <c r="D191" s="46">
         <v>190</v>
       </c>
       <c r="E191" s="16" t="s">
@@ -7513,15 +7123,15 @@
       <c r="F191" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="G191" s="45" t="s">
+      <c r="G191" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="39"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="53">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="56"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="54"/>
+      <c r="D192" s="46">
         <v>191</v>
       </c>
       <c r="E192" s="37" t="s">
@@ -7530,15 +7140,15 @@
       <c r="F192" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G192" s="45" t="s">
+      <c r="G192" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="39"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="53">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="56"/>
+      <c r="B193" s="51"/>
+      <c r="C193" s="54"/>
+      <c r="D193" s="46">
         <v>192</v>
       </c>
       <c r="E193" s="37" t="s">
@@ -7547,15 +7157,15 @@
       <c r="F193" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="G193" s="45" t="s">
+      <c r="G193" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="39"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="53">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="56"/>
+      <c r="B194" s="51"/>
+      <c r="C194" s="54"/>
+      <c r="D194" s="46">
         <v>193</v>
       </c>
       <c r="E194" s="37" t="s">
@@ -7564,15 +7174,15 @@
       <c r="F194" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="G194" s="45" t="s">
+      <c r="G194" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="39"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="31"/>
-      <c r="D195" s="53">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="56"/>
+      <c r="B195" s="51"/>
+      <c r="C195" s="54"/>
+      <c r="D195" s="46">
         <v>194</v>
       </c>
       <c r="E195" s="37" t="s">
@@ -7581,15 +7191,15 @@
       <c r="F195" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="G195" s="45" t="s">
+      <c r="G195" s="39" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="39"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="53">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="56"/>
+      <c r="B196" s="51"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="46">
         <v>195</v>
       </c>
       <c r="E196" s="37" t="s">
@@ -7598,15 +7208,15 @@
       <c r="F196" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="G196" s="45" t="s">
+      <c r="G196" s="39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="39"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="53">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="56"/>
+      <c r="B197" s="51"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="46">
         <v>196</v>
       </c>
       <c r="E197" s="37" t="s">
@@ -7615,15 +7225,15 @@
       <c r="F197" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="G197" s="45" t="s">
+      <c r="G197" s="39" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="39"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="53">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="56"/>
+      <c r="B198" s="51"/>
+      <c r="C198" s="54"/>
+      <c r="D198" s="46">
         <v>197</v>
       </c>
       <c r="E198" s="37" t="s">
@@ -7632,15 +7242,15 @@
       <c r="F198" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="G198" s="45" t="s">
+      <c r="G198" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="40"/>
-      <c r="B199" s="55"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="53">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="62"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="55"/>
+      <c r="D199" s="46">
         <v>198</v>
       </c>
       <c r="E199" s="37" t="s">
@@ -7649,19 +7259,19 @@
       <c r="F199" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="G199" s="45" t="s">
+      <c r="G199" s="39" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="38"/>
-      <c r="B200" s="38" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="50"/>
+      <c r="B200" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C200" s="38" t="s">
+      <c r="C200" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="D200" s="53">
+      <c r="D200" s="46">
         <v>199</v>
       </c>
       <c r="E200" s="37" t="s">
@@ -7674,11 +7284,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="54"/>
-      <c r="B201" s="54"/>
-      <c r="C201" s="54"/>
-      <c r="D201" s="53">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="51"/>
+      <c r="B201" s="51"/>
+      <c r="C201" s="51"/>
+      <c r="D201" s="46">
         <v>200</v>
       </c>
       <c r="E201" s="37" t="s">
@@ -7691,11 +7301,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="54"/>
-      <c r="B202" s="54"/>
-      <c r="C202" s="54"/>
-      <c r="D202" s="53">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="51"/>
+      <c r="B202" s="51"/>
+      <c r="C202" s="51"/>
+      <c r="D202" s="46">
         <v>201</v>
       </c>
       <c r="E202" s="37" t="s">
@@ -7708,11 +7318,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="54"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="54"/>
-      <c r="D203" s="53">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="51"/>
+      <c r="B203" s="51"/>
+      <c r="C203" s="51"/>
+      <c r="D203" s="46">
         <v>202</v>
       </c>
       <c r="E203" s="37" t="s">
@@ -7725,11 +7335,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="54"/>
-      <c r="B204" s="54"/>
-      <c r="C204" s="54"/>
-      <c r="D204" s="53">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="51"/>
+      <c r="B204" s="51"/>
+      <c r="C204" s="51"/>
+      <c r="D204" s="46">
         <v>203</v>
       </c>
       <c r="E204" s="37" t="s">
@@ -7742,11 +7352,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="54"/>
-      <c r="B205" s="54"/>
-      <c r="C205" s="54"/>
-      <c r="D205" s="53">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="51"/>
+      <c r="B205" s="51"/>
+      <c r="C205" s="51"/>
+      <c r="D205" s="46">
         <v>204</v>
       </c>
       <c r="E205" s="37" t="s">
@@ -7759,138 +7369,138 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="38"/>
-      <c r="B206" s="38" t="s">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="50"/>
+      <c r="B206" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="C206" s="38" t="s">
+      <c r="C206" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D206" s="53">
+      <c r="D206" s="46">
         <v>207</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F206" s="45" t="s">
+      <c r="F206" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G206" s="45" t="s">
+      <c r="G206" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="39"/>
-      <c r="B207" s="54"/>
-      <c r="C207" s="54"/>
-      <c r="D207" s="53">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="56"/>
+      <c r="B207" s="51"/>
+      <c r="C207" s="51"/>
+      <c r="D207" s="46">
         <v>208</v>
       </c>
       <c r="E207" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F207" s="45" t="s">
+      <c r="F207" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="G207" s="45" t="s">
+      <c r="G207" s="39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="39"/>
-      <c r="B208" s="54"/>
-      <c r="C208" s="54"/>
-      <c r="D208" s="53">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="56"/>
+      <c r="B208" s="51"/>
+      <c r="C208" s="51"/>
+      <c r="D208" s="46">
         <v>209</v>
       </c>
       <c r="E208" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F208" s="45" t="s">
+      <c r="F208" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="G208" s="45" t="s">
+      <c r="G208" s="39" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="39"/>
-      <c r="B209" s="54"/>
-      <c r="C209" s="54"/>
-      <c r="D209" s="53">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="56"/>
+      <c r="B209" s="51"/>
+      <c r="C209" s="51"/>
+      <c r="D209" s="46">
         <v>210</v>
       </c>
       <c r="E209" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F209" s="45" t="s">
+      <c r="F209" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="G209" s="45" t="s">
+      <c r="G209" s="39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="39"/>
-      <c r="B210" s="54"/>
-      <c r="C210" s="54"/>
-      <c r="D210" s="53">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="56"/>
+      <c r="B210" s="51"/>
+      <c r="C210" s="51"/>
+      <c r="D210" s="46">
         <v>211</v>
       </c>
       <c r="E210" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F210" s="45" t="s">
+      <c r="F210" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="G210" s="45" t="s">
+      <c r="G210" s="39" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="39"/>
-      <c r="B211" s="54"/>
-      <c r="C211" s="54"/>
-      <c r="D211" s="53">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="56"/>
+      <c r="B211" s="51"/>
+      <c r="C211" s="51"/>
+      <c r="D211" s="46">
         <v>212</v>
       </c>
       <c r="E211" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F211" s="45" t="s">
+      <c r="F211" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="G211" s="45" t="s">
+      <c r="G211" s="39" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="40"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="55"/>
-      <c r="D212" s="53">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="62"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
+      <c r="D212" s="46">
         <v>213</v>
       </c>
       <c r="E212" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F212" s="45" t="s">
+      <c r="F212" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="G212" s="45" t="s">
+      <c r="G212" s="39" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="56"/>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="49"/>
       <c r="B213" s="37" t="s">
         <v>310</v>
       </c>
       <c r="C213" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D213" s="53">
+        <v>524</v>
+      </c>
+      <c r="D213" s="46">
         <v>214</v>
       </c>
       <c r="E213" s="37" t="s">
@@ -7900,6 +7510,106 @@
         <v>9</v>
       </c>
       <c r="G213" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D214" s="46">
+        <v>215</v>
+      </c>
+      <c r="E214" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="F214" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="C215" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D215" s="46">
+        <v>216</v>
+      </c>
+      <c r="E215" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="F215" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D216" s="46">
+        <v>217</v>
+      </c>
+      <c r="E216" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F216" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="C217" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D217" s="46">
+        <v>218</v>
+      </c>
+      <c r="E217" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="F217" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="C218" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D218" s="46">
+        <v>219</v>
+      </c>
+      <c r="E218" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="F218" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7966,24 +7676,24 @@
     <mergeCell ref="C200:C205"/>
     <mergeCell ref="C206:C212"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="16" t="s">
         <v>311</v>
@@ -8004,7 +7714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="16" t="s">
         <v>313</v>
@@ -8025,7 +7735,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="16" t="s">
         <v>314</v>
@@ -8046,7 +7756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="16" t="s">
         <v>316</v>
@@ -8067,7 +7777,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="16" t="s">
         <v>317</v>
@@ -8088,7 +7798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="16" t="s">
         <v>319</v>
@@ -8109,7 +7819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="16" t="s">
         <v>320</v>
@@ -8130,7 +7840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="16" t="s">
         <v>321</v>
@@ -8151,7 +7861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="16" t="s">
         <v>322</v>
@@ -8172,7 +7882,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
         <v>325</v>
@@ -8193,7 +7903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="16" t="s">
         <v>326</v>
@@ -8214,7 +7924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="16" t="s">
         <v>327</v>
@@ -8235,7 +7945,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="16" t="s">
         <v>328</v>
@@ -8256,7 +7966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="16" t="s">
         <v>331</v>
@@ -8277,7 +7987,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="16" t="s">
         <v>332</v>
@@ -8298,7 +8008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="16" t="s">
         <v>333</v>
@@ -8320,28 +8030,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.27272727272727" customWidth="1"/>
-    <col min="2" max="2" width="27.0909090909091" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>334</v>
       </c>
@@ -8352,7 +8061,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" ht="103.5" customHeight="1" spans="2:3">
+    <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -8360,7 +8069,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8371,7 +8080,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8382,7 +8091,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8393,7 +8102,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" ht="78" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8404,7 +8113,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" ht="45" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8415,7 +8124,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:3">
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8426,7 +8135,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="1:3">
+    <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8437,7 +8146,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8448,7 +8157,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8459,7 +8168,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" ht="14.75" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8470,7 +8179,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8481,7 +8190,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8492,7 +8201,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -8503,7 +8212,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -8514,7 +8223,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -8525,7 +8234,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -8536,7 +8245,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -8547,7 +8256,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -8558,7 +8267,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -8569,7 +8278,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -8580,7 +8289,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -8591,7 +8300,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -8602,7 +8311,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -8613,7 +8322,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -8624,7 +8333,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -8635,7 +8344,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -8646,7 +8355,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -8657,7 +8366,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -8668,7 +8377,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -8679,7 +8388,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -8690,7 +8399,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -8701,7 +8410,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -8712,7 +8421,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -8723,7 +8432,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -8734,7 +8443,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -8745,7 +8454,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -8756,7 +8465,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -8767,7 +8476,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -8778,7 +8487,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8789,7 +8498,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8801,31 +8510,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="24.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="21.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="27.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8839,7 +8547,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>138</v>
       </c>
@@ -8856,7 +8564,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>142</v>
       </c>
@@ -8870,7 +8578,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>382</v>
       </c>
@@ -8887,7 +8595,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>386</v>
       </c>
@@ -8904,7 +8612,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>389</v>
       </c>
@@ -8921,7 +8629,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>392</v>
       </c>
@@ -8938,53 +8646,52 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.0909090909091" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="38.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>395</v>
       </c>
@@ -9025,7 +8732,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
@@ -9066,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -9107,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
@@ -9148,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
@@ -9189,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -9230,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
@@ -9271,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -9312,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
@@ -9353,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -9394,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -9435,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -9477,27 +9184,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -9517,7 +9223,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -9537,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
@@ -9557,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -9577,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
@@ -9597,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -9617,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
@@ -9637,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>66</v>
       </c>
@@ -9658,7 +9364,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
@@ -9679,7 +9385,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
@@ -9700,7 +9406,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>86</v>
       </c>
@@ -9720,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>115</v>
       </c>
@@ -9740,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>95</v>
       </c>
@@ -9760,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
@@ -9780,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>99</v>
       </c>
@@ -9800,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>120</v>
       </c>
@@ -9820,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>122</v>
       </c>
@@ -9840,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>124</v>
       </c>
@@ -9860,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>131</v>
       </c>
@@ -9880,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>132</v>
       </c>
@@ -9900,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>133</v>
       </c>
@@ -9920,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>134</v>
       </c>
@@ -9940,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>415</v>
       </c>
@@ -9960,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="14.5" customHeight="1" spans="1:6">
+    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>416</v>
       </c>
@@ -9980,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="14.5" customHeight="1" spans="1:6">
+    <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>417</v>
       </c>
@@ -10000,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="14.5" customHeight="1" spans="1:6">
+    <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>50</v>
       </c>
@@ -10020,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="14.5" customHeight="1" spans="1:6">
+    <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
@@ -10040,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="14.5" customHeight="1" spans="1:6">
+    <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
@@ -10060,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="14.5" customHeight="1" spans="1:6">
+    <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>48</v>
       </c>
@@ -10080,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="14.5" customHeight="1" spans="1:6">
+    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>49</v>
       </c>
@@ -10100,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="14.5" customHeight="1" spans="1:6">
+    <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
@@ -10120,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="14.5" customHeight="1" spans="1:6">
+    <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>60</v>
       </c>
@@ -10140,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="14.5" customHeight="1" spans="1:6">
+    <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>56</v>
       </c>
@@ -10160,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="14.5" customHeight="1" spans="1:6">
+    <row r="34" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>137</v>
       </c>
@@ -10180,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="14.5" customHeight="1" spans="1:6">
+    <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>418</v>
       </c>
@@ -10200,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="14.5" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>419</v>
       </c>
@@ -10220,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="14.5" customHeight="1" spans="1:6">
+    <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>420</v>
       </c>
@@ -10240,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="14.5" customHeight="1" spans="1:6">
+    <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>421</v>
       </c>
@@ -10260,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="14.5" customHeight="1" spans="1:6">
+    <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>422</v>
       </c>
@@ -10280,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="14.5" customHeight="1" spans="1:6">
+    <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>423</v>
       </c>
@@ -10300,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="14.5" customHeight="1" spans="1:6">
+    <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>424</v>
       </c>
@@ -10320,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="14.5" customHeight="1" spans="1:6">
+    <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>425</v>
       </c>
@@ -10340,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="14.5" customHeight="1" spans="1:6">
+    <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>426</v>
       </c>
@@ -10360,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="14.5" customHeight="1" spans="1:6">
+    <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>427</v>
       </c>
@@ -10380,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="14.5" customHeight="1" spans="1:6">
+    <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
@@ -10400,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="14.5" customHeight="1" spans="1:6">
+    <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>113</v>
       </c>
@@ -10420,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="14.5" customHeight="1" spans="1:6">
+    <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>135</v>
       </c>
@@ -10440,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="14.5" customHeight="1" spans="1:6">
+    <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>428</v>
       </c>
@@ -10460,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="14.5" customHeight="1" spans="1:6">
+    <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>429</v>
       </c>
@@ -10480,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="14.5" customHeight="1" spans="1:6">
+    <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>430</v>
       </c>
@@ -10500,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="14.5" customHeight="1" spans="1:6">
+    <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>431</v>
       </c>
@@ -10520,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="14.5" customHeight="1" spans="1:6">
+    <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>432</v>
       </c>
@@ -10540,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="14.5" customHeight="1" spans="1:6">
+    <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>433</v>
       </c>
@@ -10560,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="14.5" customHeight="1" spans="1:6">
+    <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>434</v>
       </c>
@@ -10580,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="14.5" customHeight="1" spans="1:6">
+    <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>435</v>
       </c>
@@ -10600,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="14.5" customHeight="1" spans="1:6">
+    <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>436</v>
       </c>
@@ -10620,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="14.5" customHeight="1" spans="1:6">
+    <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>173</v>
       </c>
@@ -10640,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="14.5" customHeight="1" spans="1:6">
+    <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>175</v>
       </c>
@@ -10660,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="14.5" customHeight="1" spans="1:6">
+    <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>176</v>
       </c>
@@ -10680,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="14.5" customHeight="1" spans="1:6">
+    <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>177</v>
       </c>
@@ -10700,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="14.5" customHeight="1" spans="1:6">
+    <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>178</v>
       </c>
@@ -10720,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="14.5" customHeight="1" spans="1:6">
+    <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>437</v>
       </c>
@@ -10740,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="14.5" customHeight="1" spans="1:6">
+    <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>438</v>
       </c>
@@ -10760,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="14.5" customHeight="1" spans="1:6">
+    <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>439</v>
       </c>
@@ -10780,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="14.5" customHeight="1" spans="1:6">
+    <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>440</v>
       </c>
@@ -10800,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="14.5" customHeight="1" spans="1:6">
+    <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>441</v>
       </c>
@@ -10820,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="14.5" customHeight="1" spans="1:6">
+    <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>442</v>
       </c>
@@ -10840,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="14.5" customHeight="1" spans="1:6">
+    <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>443</v>
       </c>
@@ -10860,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="14.5" customHeight="1" spans="1:6">
+    <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>444</v>
       </c>
@@ -10880,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="14.5" customHeight="1" spans="1:6">
+    <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>445</v>
       </c>
@@ -10900,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="14.5" customHeight="1" spans="1:6">
+    <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>446</v>
       </c>
@@ -10920,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="14.5" customHeight="1" spans="1:6">
+    <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>447</v>
       </c>
@@ -10940,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="14.5" customHeight="1" spans="1:6">
+    <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>448</v>
       </c>
@@ -10960,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="14.5" customHeight="1" spans="1:6">
+    <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>145</v>
       </c>
@@ -10980,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="14.5" customHeight="1" spans="1:6">
+    <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>147</v>
       </c>
@@ -11000,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="14.5" customHeight="1" spans="1:6">
+    <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>149</v>
       </c>
@@ -11020,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="14.5" customHeight="1" spans="1:6">
+    <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>161</v>
       </c>
@@ -11040,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>220</v>
       </c>
@@ -11060,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>222</v>
       </c>
@@ -11080,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>223</v>
       </c>
@@ -11100,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>239</v>
       </c>
@@ -11120,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>240</v>
       </c>
@@ -11140,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>242</v>
       </c>
@@ -11160,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>243</v>
       </c>
@@ -11180,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>245</v>
       </c>
@@ -11200,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>247</v>
       </c>
@@ -11220,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>249</v>
       </c>
@@ -11240,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>449</v>
       </c>
@@ -11260,7 +10966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
         <v>258</v>
       </c>
@@ -11280,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
         <v>259</v>
       </c>
@@ -11301,42 +11007,41 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="15.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="13.9090909090909" style="2" customWidth="1"/>
-    <col min="4" max="12" width="13.9090909090909" customWidth="1"/>
-    <col min="14" max="14" width="15.9090909090909" customWidth="1"/>
-    <col min="15" max="15" width="18.9090909090909" customWidth="1"/>
-    <col min="17" max="17" width="10.7272727272727" customWidth="1"/>
-    <col min="18" max="18" width="11.6363636363636" customWidth="1"/>
-    <col min="19" max="19" width="9.36363636363636" customWidth="1"/>
-    <col min="20" max="20" width="13.2727272727273" customWidth="1"/>
-    <col min="21" max="21" width="23.3636363636364" customWidth="1"/>
-    <col min="24" max="24" width="13.4545454545455" customWidth="1"/>
-    <col min="25" max="25" width="18.9090909090909" customWidth="1"/>
-    <col min="26" max="26" width="15.9090909090909" customWidth="1"/>
-    <col min="27" max="27" width="16.4545454545455" customWidth="1"/>
-    <col min="28" max="28" width="13.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="2" customWidth="1"/>
+    <col min="4" max="12" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="15.90625" customWidth="1"/>
+    <col min="15" max="15" width="18.90625" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1"/>
+    <col min="18" max="18" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" customWidth="1"/>
+    <col min="21" max="21" width="23.36328125" customWidth="1"/>
+    <col min="24" max="24" width="13.453125" customWidth="1"/>
+    <col min="25" max="25" width="18.90625" customWidth="1"/>
+    <col min="26" max="26" width="15.90625" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" customWidth="1"/>
+    <col min="28" max="28" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>450</v>
       </c>
@@ -11422,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>454</v>
       </c>
@@ -11490,7 +11195,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>471</v>
       </c>
@@ -11570,7 +11275,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>318</v>
       </c>
@@ -11590,7 +11295,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>323</v>
       </c>
@@ -11610,7 +11315,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>329</v>
       </c>
@@ -11630,7 +11335,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:28">
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>173</v>
       </c>
@@ -11705,7 +11410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>175</v>
       </c>
@@ -11783,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>176</v>
       </c>
@@ -11863,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>177</v>
       </c>
@@ -11943,7 +11648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>178</v>
       </c>
@@ -12023,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -12103,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>182</v>
       </c>
@@ -12183,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -12263,7 +11968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>117</v>
       </c>
@@ -12345,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
@@ -12431,7 +12136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
@@ -12517,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>183</v>
       </c>
@@ -12528,7 +12233,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>215</v>
       </c>
@@ -12539,7 +12244,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>186</v>
       </c>
@@ -12550,7 +12255,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>188</v>
       </c>
@@ -12561,7 +12266,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>189</v>
       </c>
@@ -12572,7 +12277,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>190</v>
       </c>
@@ -12583,7 +12288,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>191</v>
       </c>
@@ -12594,7 +12299,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>192</v>
       </c>
@@ -12605,7 +12310,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>193</v>
       </c>
@@ -12616,7 +12321,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
@@ -12627,7 +12332,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>195</v>
       </c>
@@ -12638,7 +12343,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>196</v>
       </c>
@@ -12649,7 +12354,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>197</v>
       </c>
@@ -12660,7 +12365,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>198</v>
       </c>
@@ -12671,7 +12376,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>199</v>
       </c>
@@ -12682,7 +12387,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>200</v>
       </c>
@@ -12693,7 +12398,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>224</v>
       </c>
@@ -12707,7 +12412,7 @@
         <v>98315</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>227</v>
       </c>
@@ -12721,7 +12426,7 @@
         <v>163851</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>228</v>
       </c>
@@ -12735,32 +12440,35 @@
         <v>294923</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>515</v>
+      <c r="C37" s="70" t="s">
+        <v>527</v>
       </c>
       <c r="D37">
         <v>557067</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37" s="71" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="C38" s="69" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>231</v>
       </c>
@@ -12768,10 +12476,10 @@
         <v>492</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>232</v>
       </c>
@@ -12779,10 +12487,10 @@
         <v>492</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>233</v>
       </c>
@@ -12790,10 +12498,10 @@
         <v>492</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>234</v>
       </c>
@@ -12804,7 +12512,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>235</v>
       </c>
@@ -12815,7 +12523,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>236</v>
       </c>
@@ -12823,10 +12531,10 @@
         <v>492</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>237</v>
       </c>
@@ -12838,8 +12546,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/config/project/Integrate_120KW_huawei_20KW/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_huawei_20KW/IntegrateConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\mcmc\platDemo\platDemo\config\project\Integrate_120KW_huawei_20KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6DE95B3-7BCF-4B3B-9EB9-2427D63AF283}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58434140-8FCF-43AA-918A-F25A57CACE18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="7730" tabRatio="667" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="7730" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="532">
   <si>
     <t>组序号</t>
   </si>
@@ -829,28 +829,6 @@
     <t>铭牌编号</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C</t>
-    </r>
-  </si>
-  <si>
     <t>枪型号记录</t>
   </si>
   <si>
@@ -2611,6 +2589,22 @@
       </rPr>
       <t>KW因为只有6个模块，所以第四个模块供给枪2</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZB</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2971,7 +2965,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2988,54 +3030,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3316,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="B193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3655,11 +3649,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="22">
@@ -3676,9 +3670,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -3693,9 +3687,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -3710,9 +3704,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -3727,9 +3721,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -3790,11 +3784,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="56" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="22">
@@ -3811,9 +3805,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -3828,9 +3822,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -3845,9 +3839,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3862,9 +3856,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3921,11 +3915,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="59" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="22">
@@ -3942,9 +3936,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -3959,9 +3953,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -3976,9 +3970,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -3993,9 +3987,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="22">
         <v>32</v>
       </c>
@@ -4010,11 +4004,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="22">
@@ -4031,9 +4025,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="22">
         <v>34</v>
       </c>
@@ -4048,11 +4042,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58" t="s">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="54" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="22">
@@ -4069,9 +4063,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="22">
         <v>36</v>
       </c>
@@ -4086,11 +4080,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="57" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="22">
@@ -4107,9 +4101,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22">
         <v>38</v>
       </c>
@@ -4124,11 +4118,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="22">
@@ -4145,9 +4139,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -4162,9 +4156,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -4179,9 +4173,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -4196,9 +4190,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="22">
         <v>43</v>
       </c>
@@ -4213,11 +4207,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="58">
+      <c r="A45" s="55">
         <v>13</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58" t="s">
+      <c r="B45" s="55"/>
+      <c r="C45" s="55" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="22">
@@ -4297,11 +4291,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61" t="s">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="22">
@@ -4318,9 +4312,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -4335,9 +4329,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -4436,11 +4430,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="56"/>
+      <c r="B56" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="56" t="s">
         <v>92</v>
       </c>
       <c r="D56" s="22">
@@ -4457,9 +4451,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="22">
         <v>56</v>
       </c>
@@ -4474,9 +4468,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="22">
         <v>57</v>
       </c>
@@ -4491,9 +4485,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="22">
         <v>58</v>
       </c>
@@ -4508,9 +4502,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="56"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="22">
         <v>59</v>
       </c>
@@ -4525,9 +4519,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="56"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="22">
         <v>60</v>
       </c>
@@ -4542,9 +4536,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="22">
         <v>61</v>
       </c>
@@ -4601,11 +4595,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="22">
@@ -4622,9 +4616,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
       <c r="D66" s="22">
         <v>65</v>
       </c>
@@ -4639,9 +4633,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="22">
         <v>66</v>
       </c>
@@ -4740,11 +4734,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50" t="s">
+      <c r="A72" s="56"/>
+      <c r="B72" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="56" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="22">
@@ -4761,9 +4755,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="56"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
@@ -4778,9 +4772,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="56"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="22">
         <v>73</v>
       </c>
@@ -4795,9 +4789,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="56"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="22">
         <v>74</v>
       </c>
@@ -4812,9 +4806,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="22">
         <v>75</v>
       </c>
@@ -4829,9 +4823,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="56"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="22">
         <v>76</v>
       </c>
@@ -4846,9 +4840,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="56"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="22">
         <v>77</v>
       </c>
@@ -4905,11 +4899,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57" t="s">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="54" t="s">
         <v>130</v>
       </c>
       <c r="D81" s="22">
@@ -4926,9 +4920,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="58"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="22">
         <v>81</v>
       </c>
@@ -4943,9 +4937,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="58"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
       <c r="D83" s="22">
         <v>82</v>
       </c>
@@ -4960,9 +4954,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="22">
         <v>83</v>
       </c>
@@ -5271,11 +5265,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="59" t="s">
+      <c r="A99" s="63"/>
+      <c r="B99" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="59" t="s">
+      <c r="C99" s="63" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="22">
@@ -5292,9 +5286,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="59"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="22">
         <v>99</v>
       </c>
@@ -5309,9 +5303,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="63"/>
       <c r="D101" s="22">
         <v>100</v>
       </c>
@@ -5347,11 +5341,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59" t="s">
+      <c r="A103" s="63"/>
+      <c r="B103" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="63" t="s">
         <v>45</v>
       </c>
       <c r="D103" s="22">
@@ -5368,9 +5362,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="60"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="22">
         <v>103</v>
       </c>
@@ -5385,9 +5379,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="60"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="60"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="22">
         <v>104</v>
       </c>
@@ -5407,7 +5401,7 @@
         <v>164</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>45</v>
+        <v>530</v>
       </c>
       <c r="D106" s="22">
         <v>105</v>
@@ -5415,8 +5409,8 @@
       <c r="E106" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F106" s="16" t="s">
-        <v>165</v>
+      <c r="F106" s="50" t="s">
+        <v>531</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>32</v>
@@ -5425,16 +5419,16 @@
     <row r="107" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="D107" s="22">
         <v>106</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>32</v>
@@ -5446,7 +5440,7 @@
     <row r="108" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>8</v>
@@ -5455,7 +5449,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>32</v>
@@ -5467,7 +5461,7 @@
     <row r="109" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>8</v>
@@ -5476,7 +5470,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>32</v>
@@ -5488,7 +5482,7 @@
     <row r="110" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>8</v>
@@ -5497,7 +5491,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>32</v>
@@ -5509,7 +5503,7 @@
     <row r="111" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>8</v>
@@ -5518,7 +5512,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>32</v>
@@ -5530,7 +5524,7 @@
     <row r="112" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C112" s="22" t="s">
         <v>8</v>
@@ -5539,7 +5533,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>32</v>
@@ -5551,16 +5545,16 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
       <c r="B113" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="D113" s="22">
         <v>112</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F113" s="16" t="s">
         <v>32</v>
@@ -5572,16 +5566,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
       <c r="B114" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D114" s="22">
         <v>113</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>32</v>
@@ -5593,16 +5587,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
       <c r="B115" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D115" s="22">
         <v>114</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>32</v>
@@ -5614,16 +5608,16 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
       <c r="B116" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D116" s="22">
         <v>115</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>32</v>
@@ -5635,16 +5629,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="32"/>
       <c r="B117" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D117" s="22">
         <v>116</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>32</v>
@@ -5656,16 +5650,16 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="32"/>
       <c r="B118" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D118" s="22">
         <v>117</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F118" s="16" t="s">
         <v>32</v>
@@ -5677,16 +5671,16 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="32"/>
       <c r="B119" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D119" s="22">
         <v>118</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F119" s="16" t="s">
         <v>32</v>
@@ -5698,16 +5692,16 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D120" s="22">
         <v>119</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>32</v>
@@ -5719,16 +5713,16 @@
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D121" s="22">
         <v>120</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F121" s="16" t="s">
         <v>32</v>
@@ -5740,16 +5734,16 @@
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D122" s="22">
         <v>121</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F122" s="16" t="s">
         <v>32</v>
@@ -5761,16 +5755,16 @@
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="D123" s="22">
         <v>122</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F123" s="16" t="s">
         <v>32</v>
@@ -5782,16 +5776,16 @@
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D124" s="22">
         <v>123</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F124" s="16" t="s">
         <v>32</v>
@@ -5803,16 +5797,16 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D125" s="22">
         <v>124</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F125" s="16" t="s">
         <v>32</v>
@@ -5824,16 +5818,16 @@
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D126" s="22">
         <v>125</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>32</v>
@@ -5845,16 +5839,16 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D127" s="22">
         <v>126</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F127" s="16" t="s">
         <v>32</v>
@@ -5866,16 +5860,16 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D128" s="22">
         <v>127</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>32</v>
@@ -5887,16 +5881,16 @@
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D129" s="22">
         <v>128</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>32</v>
@@ -5908,16 +5902,16 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D130" s="22">
         <v>129</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F130" s="16" t="s">
         <v>32</v>
@@ -5929,16 +5923,16 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D131" s="22">
         <v>130</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F131" s="16" t="s">
         <v>32</v>
@@ -5950,16 +5944,16 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D132" s="22">
         <v>131</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F132" s="16" t="s">
         <v>32</v>
@@ -5971,16 +5965,16 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" s="22">
         <v>132</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F133" s="16" t="s">
         <v>32</v>
@@ -5992,16 +5986,16 @@
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D134" s="22">
         <v>133</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F134" s="16" t="s">
         <v>32</v>
@@ -6013,16 +6007,16 @@
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D135" s="22">
         <v>134</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F135" s="16" t="s">
         <v>32</v>
@@ -6034,16 +6028,16 @@
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D136" s="22">
         <v>135</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F136" s="16" t="s">
         <v>32</v>
@@ -6055,7 +6049,7 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>8</v>
@@ -6064,7 +6058,7 @@
         <v>136</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F137" s="16" t="s">
         <v>32</v>
@@ -6076,7 +6070,7 @@
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>8</v>
@@ -6085,7 +6079,7 @@
         <v>137</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F138" s="16" t="s">
         <v>32</v>
@@ -6097,7 +6091,7 @@
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>8</v>
@@ -6106,7 +6100,7 @@
         <v>138</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F139" s="16" t="s">
         <v>32</v>
@@ -6118,7 +6112,7 @@
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>8</v>
@@ -6127,7 +6121,7 @@
         <v>139</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F140" s="16" t="s">
         <v>32</v>
@@ -6139,7 +6133,7 @@
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>8</v>
@@ -6148,7 +6142,7 @@
         <v>140</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F141" s="16" t="s">
         <v>32</v>
@@ -6160,7 +6154,7 @@
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>8</v>
@@ -6169,7 +6163,7 @@
         <v>141</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>32</v>
@@ -6181,7 +6175,7 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>8</v>
@@ -6190,7 +6184,7 @@
         <v>142</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F143" s="16" t="s">
         <v>32</v>
@@ -6202,7 +6196,7 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>8</v>
@@ -6211,7 +6205,7 @@
         <v>143</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F144" s="16" t="s">
         <v>32</v>
@@ -6223,7 +6217,7 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>8</v>
@@ -6232,7 +6226,7 @@
         <v>144</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F145" s="16" t="s">
         <v>32</v>
@@ -6244,7 +6238,7 @@
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>8</v>
@@ -6253,7 +6247,7 @@
         <v>145</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F146" s="16" t="s">
         <v>32</v>
@@ -6265,7 +6259,7 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>8</v>
@@ -6274,7 +6268,7 @@
         <v>146</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>32</v>
@@ -6286,7 +6280,7 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>8</v>
@@ -6295,7 +6289,7 @@
         <v>147</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>32</v>
@@ -6307,7 +6301,7 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>8</v>
@@ -6316,7 +6310,7 @@
         <v>148</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>32</v>
@@ -6328,7 +6322,7 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>8</v>
@@ -6337,7 +6331,7 @@
         <v>149</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>32</v>
@@ -6349,16 +6343,16 @@
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D151" s="16">
         <v>150</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F151" s="16" t="s">
         <v>32</v>
@@ -6370,16 +6364,16 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="D152" s="16">
         <v>151</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>32</v>
@@ -6389,562 +6383,562 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="66"/>
-      <c r="B153" s="66" t="s">
+      <c r="A153" s="65"/>
+      <c r="B153" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="C153" s="55" t="s">
         <v>218</v>
-      </c>
-      <c r="C153" s="58" t="s">
-        <v>219</v>
       </c>
       <c r="D153" s="16">
         <v>152</v>
       </c>
       <c r="E153" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F153" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F153" s="39" t="s">
-        <v>221</v>
-      </c>
       <c r="G153" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="66"/>
-      <c r="B154" s="66"/>
-      <c r="C154" s="58"/>
+      <c r="A154" s="65"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="55"/>
       <c r="D154" s="16">
         <v>153</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G154" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="66"/>
-      <c r="B155" s="66"/>
-      <c r="C155" s="58"/>
+      <c r="A155" s="65"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="55"/>
       <c r="D155" s="16">
         <v>154</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G155" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
       <c r="B156" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C156" s="45" t="s">
         <v>224</v>
-      </c>
-      <c r="C156" s="45" t="s">
-        <v>225</v>
       </c>
       <c r="D156" s="46">
         <v>155</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F156" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="44"/>
       <c r="B157" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D157" s="46">
         <v>156</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F157" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="44"/>
       <c r="B158" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D158" s="46">
         <v>157</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F158" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="44"/>
       <c r="B159" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D159" s="46">
         <v>158</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F159" s="68" t="s">
-        <v>525</v>
+        <v>228</v>
+      </c>
+      <c r="F159" s="50" t="s">
+        <v>524</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="44"/>
       <c r="B160" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D160" s="46">
         <v>159</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F160" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="44"/>
       <c r="B161" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D161" s="46">
         <v>160</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F161" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="44"/>
       <c r="B162" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D162" s="46">
         <v>161</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F162" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="44"/>
       <c r="B163" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D163" s="46">
         <v>162</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F163" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="44"/>
       <c r="B164" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D164" s="46">
         <v>163</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F164" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="44"/>
       <c r="B165" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D165" s="46">
         <v>164</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F165" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="44"/>
       <c r="B166" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D166" s="46">
         <v>165</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F166" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
       <c r="B167" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D167" s="46">
         <v>166</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F167" s="16" t="s">
         <v>41</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="50"/>
-      <c r="B168" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="C168" s="50" t="s">
-        <v>219</v>
+      <c r="A168" s="56"/>
+      <c r="B168" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C168" s="56" t="s">
+        <v>218</v>
       </c>
       <c r="D168" s="46">
         <v>167</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F168" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G168" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="56"/>
-      <c r="B169" s="51"/>
-      <c r="C169" s="51"/>
+      <c r="A169" s="57"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
       <c r="D169" s="46">
         <v>168</v>
       </c>
       <c r="E169" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F169" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="F169" s="39" t="s">
-        <v>241</v>
-      </c>
       <c r="G169" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="56"/>
-      <c r="B170" s="51"/>
-      <c r="C170" s="51"/>
+      <c r="A170" s="57"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
       <c r="D170" s="46">
         <v>169</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F170" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="56"/>
-      <c r="B171" s="51"/>
-      <c r="C171" s="51"/>
+      <c r="A171" s="57"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="67"/>
       <c r="D171" s="46">
         <v>170</v>
       </c>
       <c r="E171" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F171" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="F171" s="39" t="s">
-        <v>244</v>
-      </c>
       <c r="G171" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="56"/>
-      <c r="B172" s="51"/>
-      <c r="C172" s="51"/>
+      <c r="A172" s="57"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
       <c r="D172" s="46">
         <v>171</v>
       </c>
       <c r="E172" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F172" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="F172" s="39" t="s">
-        <v>246</v>
-      </c>
       <c r="G172" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="56"/>
-      <c r="B173" s="51"/>
-      <c r="C173" s="51"/>
+      <c r="A173" s="57"/>
+      <c r="B173" s="67"/>
+      <c r="C173" s="67"/>
       <c r="D173" s="46">
         <v>172</v>
       </c>
       <c r="E173" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F173" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="F173" s="39" t="s">
-        <v>248</v>
-      </c>
       <c r="G173" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="62"/>
-      <c r="B174" s="52"/>
-      <c r="C174" s="52"/>
+      <c r="A174" s="58"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="68"/>
       <c r="D174" s="46">
         <v>173</v>
       </c>
       <c r="E174" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F174" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="F174" s="39" t="s">
+      <c r="G174" s="39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="56"/>
+      <c r="B175" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="G174" s="39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
-      <c r="B175" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="C175" s="50" t="s">
-        <v>219</v>
+      <c r="C175" s="56" t="s">
+        <v>218</v>
       </c>
       <c r="D175" s="46">
         <v>174</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="56"/>
-      <c r="B176" s="51"/>
-      <c r="C176" s="51"/>
+      <c r="A176" s="57"/>
+      <c r="B176" s="67"/>
+      <c r="C176" s="67"/>
       <c r="D176" s="46">
         <v>175</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G176" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="56"/>
-      <c r="B177" s="51"/>
-      <c r="C177" s="51"/>
+      <c r="A177" s="57"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="67"/>
       <c r="D177" s="46">
         <v>176</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="56"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="51"/>
+      <c r="A178" s="57"/>
+      <c r="B178" s="67"/>
+      <c r="C178" s="67"/>
       <c r="D178" s="46">
         <v>177</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G178" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="56"/>
-      <c r="B179" s="51"/>
-      <c r="C179" s="51"/>
+      <c r="A179" s="57"/>
+      <c r="B179" s="67"/>
+      <c r="C179" s="67"/>
       <c r="D179" s="46">
         <v>178</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="56"/>
-      <c r="B180" s="51"/>
-      <c r="C180" s="51"/>
+      <c r="A180" s="57"/>
+      <c r="B180" s="67"/>
+      <c r="C180" s="67"/>
       <c r="D180" s="46">
         <v>179</v>
       </c>
       <c r="E180" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F180" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="F180" s="39" t="s">
-        <v>248</v>
-      </c>
       <c r="G180" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="62"/>
-      <c r="B181" s="52"/>
-      <c r="C181" s="52"/>
+      <c r="A181" s="58"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="68"/>
       <c r="D181" s="46">
         <v>180</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="47"/>
       <c r="B182" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C182" s="37" t="s">
         <v>45</v>
@@ -6953,7 +6947,7 @@
         <v>181</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F182" s="37" t="s">
         <v>9</v>
@@ -6965,7 +6959,7 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="47"/>
       <c r="B183" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C183" s="37" t="s">
         <v>45</v>
@@ -6974,7 +6968,7 @@
         <v>182</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F183" s="37" t="s">
         <v>9</v>
@@ -6986,16 +6980,16 @@
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="47"/>
       <c r="B184" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C184" s="37" t="s">
         <v>259</v>
-      </c>
-      <c r="C184" s="37" t="s">
-        <v>260</v>
       </c>
       <c r="D184" s="46">
         <v>183</v>
       </c>
       <c r="E184" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F184" s="37" t="s">
         <v>9</v>
@@ -7005,277 +6999,277 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="67"/>
-      <c r="B185" s="50" t="s">
+      <c r="A185" s="66"/>
+      <c r="B185" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C185" s="69" t="s">
         <v>261</v>
-      </c>
-      <c r="C185" s="53" t="s">
-        <v>262</v>
       </c>
       <c r="D185" s="46">
         <v>184</v>
       </c>
       <c r="E185" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F185" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="F185" s="48" t="s">
-        <v>264</v>
-      </c>
       <c r="G185" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="56"/>
-      <c r="B186" s="51"/>
-      <c r="C186" s="54"/>
+      <c r="A186" s="57"/>
+      <c r="B186" s="67"/>
+      <c r="C186" s="70"/>
       <c r="D186" s="46">
         <v>185</v>
       </c>
       <c r="E186" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F186" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F186" s="16" t="s">
+      <c r="G186" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="G186" s="39" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="56"/>
-      <c r="B187" s="51"/>
-      <c r="C187" s="54"/>
+      <c r="A187" s="57"/>
+      <c r="B187" s="67"/>
+      <c r="C187" s="70"/>
       <c r="D187" s="46">
         <v>186</v>
       </c>
       <c r="E187" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F187" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F187" s="16" t="s">
-        <v>269</v>
-      </c>
       <c r="G187" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="56"/>
-      <c r="B188" s="51"/>
-      <c r="C188" s="54"/>
+      <c r="A188" s="57"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="70"/>
       <c r="D188" s="46">
         <v>187</v>
       </c>
       <c r="E188" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F188" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="F188" s="16" t="s">
+      <c r="G188" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="G188" s="39" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="56"/>
-      <c r="B189" s="51"/>
-      <c r="C189" s="54"/>
+      <c r="A189" s="57"/>
+      <c r="B189" s="67"/>
+      <c r="C189" s="70"/>
       <c r="D189" s="46">
         <v>188</v>
       </c>
       <c r="E189" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F189" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="F189" s="16" t="s">
-        <v>274</v>
       </c>
       <c r="G189" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="56"/>
-      <c r="B190" s="51"/>
-      <c r="C190" s="54"/>
+      <c r="A190" s="57"/>
+      <c r="B190" s="67"/>
+      <c r="C190" s="70"/>
       <c r="D190" s="46">
         <v>189</v>
       </c>
       <c r="E190" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F190" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F190" s="16" t="s">
-        <v>276</v>
-      </c>
       <c r="G190" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="56"/>
-      <c r="B191" s="51"/>
-      <c r="C191" s="54"/>
+      <c r="A191" s="57"/>
+      <c r="B191" s="67"/>
+      <c r="C191" s="70"/>
       <c r="D191" s="46">
         <v>190</v>
       </c>
       <c r="E191" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F191" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="F191" s="16" t="s">
-        <v>278</v>
-      </c>
       <c r="G191" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="56"/>
-      <c r="B192" s="51"/>
-      <c r="C192" s="54"/>
+      <c r="A192" s="57"/>
+      <c r="B192" s="67"/>
+      <c r="C192" s="70"/>
       <c r="D192" s="46">
         <v>191</v>
       </c>
       <c r="E192" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="F192" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="F192" s="16" t="s">
-        <v>280</v>
-      </c>
       <c r="G192" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="56"/>
-      <c r="B193" s="51"/>
-      <c r="C193" s="54"/>
+      <c r="A193" s="57"/>
+      <c r="B193" s="67"/>
+      <c r="C193" s="70"/>
       <c r="D193" s="46">
         <v>192</v>
       </c>
       <c r="E193" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="F193" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F193" s="16" t="s">
-        <v>282</v>
-      </c>
       <c r="G193" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="56"/>
-      <c r="B194" s="51"/>
-      <c r="C194" s="54"/>
+      <c r="A194" s="57"/>
+      <c r="B194" s="67"/>
+      <c r="C194" s="70"/>
       <c r="D194" s="46">
         <v>193</v>
       </c>
       <c r="E194" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F194" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="F194" s="16" t="s">
-        <v>284</v>
-      </c>
       <c r="G194" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="56"/>
-      <c r="B195" s="51"/>
-      <c r="C195" s="54"/>
+      <c r="A195" s="57"/>
+      <c r="B195" s="67"/>
+      <c r="C195" s="70"/>
       <c r="D195" s="46">
         <v>194</v>
       </c>
       <c r="E195" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F195" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="F195" s="37" t="s">
+      <c r="G195" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="G195" s="39" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="56"/>
-      <c r="B196" s="51"/>
-      <c r="C196" s="54"/>
+      <c r="A196" s="57"/>
+      <c r="B196" s="67"/>
+      <c r="C196" s="70"/>
       <c r="D196" s="46">
         <v>195</v>
       </c>
       <c r="E196" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F196" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="F196" s="16" t="s">
-        <v>289</v>
       </c>
       <c r="G196" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="56"/>
-      <c r="B197" s="51"/>
-      <c r="C197" s="54"/>
+      <c r="A197" s="57"/>
+      <c r="B197" s="67"/>
+      <c r="C197" s="70"/>
       <c r="D197" s="46">
         <v>196</v>
       </c>
       <c r="E197" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F197" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="F197" s="16" t="s">
+      <c r="G197" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="G197" s="39" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="56"/>
-      <c r="B198" s="51"/>
-      <c r="C198" s="54"/>
+      <c r="A198" s="57"/>
+      <c r="B198" s="67"/>
+      <c r="C198" s="70"/>
       <c r="D198" s="46">
         <v>197</v>
       </c>
       <c r="E198" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="F198" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F198" s="16" t="s">
-        <v>294</v>
-      </c>
       <c r="G198" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="62"/>
-      <c r="B199" s="52"/>
-      <c r="C199" s="55"/>
+      <c r="A199" s="58"/>
+      <c r="B199" s="68"/>
+      <c r="C199" s="71"/>
       <c r="D199" s="46">
         <v>198</v>
       </c>
       <c r="E199" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F199" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F199" s="16" t="s">
+      <c r="G199" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="G199" s="39" t="s">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="56"/>
+      <c r="B200" s="56" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="50"/>
-      <c r="B200" s="50" t="s">
+      <c r="C200" s="56" t="s">
         <v>298</v>
-      </c>
-      <c r="C200" s="50" t="s">
-        <v>299</v>
       </c>
       <c r="D200" s="46">
         <v>199</v>
       </c>
       <c r="E200" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F200" s="37" t="s">
         <v>9</v>
@@ -7285,14 +7279,14 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="51"/>
-      <c r="B201" s="51"/>
-      <c r="C201" s="51"/>
+      <c r="A201" s="67"/>
+      <c r="B201" s="67"/>
+      <c r="C201" s="67"/>
       <c r="D201" s="46">
         <v>200</v>
       </c>
       <c r="E201" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F201" s="37" t="s">
         <v>9</v>
@@ -7302,14 +7296,14 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="51"/>
-      <c r="B202" s="51"/>
-      <c r="C202" s="51"/>
+      <c r="A202" s="67"/>
+      <c r="B202" s="67"/>
+      <c r="C202" s="67"/>
       <c r="D202" s="46">
         <v>201</v>
       </c>
       <c r="E202" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F202" s="37" t="s">
         <v>9</v>
@@ -7319,14 +7313,14 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="51"/>
-      <c r="B203" s="51"/>
-      <c r="C203" s="51"/>
+      <c r="A203" s="67"/>
+      <c r="B203" s="67"/>
+      <c r="C203" s="67"/>
       <c r="D203" s="46">
         <v>202</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F203" s="37" t="s">
         <v>9</v>
@@ -7336,14 +7330,14 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="51"/>
-      <c r="B204" s="51"/>
-      <c r="C204" s="51"/>
+      <c r="A204" s="67"/>
+      <c r="B204" s="67"/>
+      <c r="C204" s="67"/>
       <c r="D204" s="46">
         <v>203</v>
       </c>
       <c r="E204" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F204" s="37" t="s">
         <v>9</v>
@@ -7353,158 +7347,158 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="51"/>
-      <c r="B205" s="51"/>
-      <c r="C205" s="51"/>
+      <c r="A205" s="67"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="67"/>
       <c r="D205" s="46">
         <v>204</v>
       </c>
       <c r="E205" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="F205" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="56"/>
+      <c r="B206" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="F205" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G205" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="50"/>
-      <c r="B206" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="C206" s="50" t="s">
-        <v>219</v>
+      <c r="C206" s="56" t="s">
+        <v>218</v>
       </c>
       <c r="D206" s="46">
         <v>207</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F206" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G206" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="56"/>
-      <c r="B207" s="51"/>
-      <c r="C207" s="51"/>
+      <c r="A207" s="57"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="67"/>
       <c r="D207" s="46">
         <v>208</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F207" s="39" t="s">
-        <v>221</v>
+        <v>529</v>
       </c>
       <c r="G207" s="39" t="s">
-        <v>221</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="56"/>
-      <c r="B208" s="51"/>
-      <c r="C208" s="51"/>
+      <c r="A208" s="57"/>
+      <c r="B208" s="67"/>
+      <c r="C208" s="67"/>
       <c r="D208" s="46">
         <v>209</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F208" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G208" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="56"/>
-      <c r="B209" s="51"/>
-      <c r="C209" s="51"/>
+      <c r="A209" s="57"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67"/>
       <c r="D209" s="46">
         <v>210</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F209" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G209" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="56"/>
-      <c r="B210" s="51"/>
-      <c r="C210" s="51"/>
+      <c r="A210" s="57"/>
+      <c r="B210" s="67"/>
+      <c r="C210" s="67"/>
       <c r="D210" s="46">
         <v>211</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F210" s="39" t="s">
-        <v>244</v>
+        <v>528</v>
       </c>
       <c r="G210" s="39" t="s">
-        <v>244</v>
+        <v>528</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="56"/>
-      <c r="B211" s="51"/>
-      <c r="C211" s="51"/>
+      <c r="A211" s="57"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67"/>
       <c r="D211" s="46">
         <v>212</v>
       </c>
       <c r="E211" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F211" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="F211" s="39" t="s">
-        <v>248</v>
-      </c>
       <c r="G211" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="62"/>
-      <c r="B212" s="52"/>
-      <c r="C212" s="52"/>
+      <c r="A212" s="58"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="68"/>
       <c r="D212" s="46">
         <v>213</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F212" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G212" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="49"/>
       <c r="B213" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C213" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D213" s="46">
         <v>214</v>
       </c>
       <c r="E213" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F213" s="37" t="s">
         <v>9</v>
@@ -7515,16 +7509,16 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B214" s="37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C214" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D214" s="46">
         <v>215</v>
       </c>
       <c r="E214" s="37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F214" s="37" t="s">
         <v>9</v>
@@ -7535,16 +7529,16 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B215" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C215" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D215" s="46">
         <v>216</v>
       </c>
       <c r="E215" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F215" s="37" t="s">
         <v>9</v>
@@ -7555,16 +7549,16 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B216" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C216" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D216" s="46">
         <v>217</v>
       </c>
       <c r="E216" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F216" s="37" t="s">
         <v>9</v>
@@ -7575,16 +7569,16 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B217" s="37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C217" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D217" s="46">
         <v>218</v>
       </c>
       <c r="E217" s="37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F217" s="37" t="s">
         <v>9</v>
@@ -7595,16 +7589,16 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B218" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="C218" s="37" t="s">
         <v>523</v>
-      </c>
-      <c r="C218" s="37" t="s">
-        <v>524</v>
       </c>
       <c r="D218" s="46">
         <v>219</v>
       </c>
       <c r="E218" s="37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F218" s="37" t="s">
         <v>9</v>
@@ -7615,66 +7609,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C185:C199"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="C206:C212"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="A185:A199"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="A206:A212"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A65:A67"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="A185:A199"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="A206:A212"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="B206:B212"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C185:C199"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="C206:C212"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7696,16 +7690,16 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="22">
         <v>122</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>76</v>
@@ -7717,16 +7711,16 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="22">
         <v>123</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>76</v>
@@ -7738,16 +7732,16 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="22">
         <v>124</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>107</v>
@@ -7759,16 +7753,16 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="22">
         <v>125</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>107</v>
@@ -7780,19 +7774,19 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="22">
         <v>126</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>63</v>
@@ -7801,19 +7795,19 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="22">
         <v>127</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>63</v>
@@ -7822,19 +7816,19 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="22">
         <v>128</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>63</v>
@@ -7843,19 +7837,19 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="22">
         <v>129</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>151</v>
@@ -7864,19 +7858,19 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="22">
         <v>130</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>63</v>
@@ -7885,19 +7879,19 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="22">
         <v>131</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>63</v>
@@ -7906,19 +7900,19 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="22">
         <v>132</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>63</v>
@@ -7927,19 +7921,19 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="22">
         <v>133</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>151</v>
@@ -7948,19 +7942,19 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="22">
         <v>134</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>330</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>63</v>
@@ -7969,19 +7963,19 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="22">
         <v>135</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>330</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>63</v>
@@ -7990,19 +7984,19 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="22">
         <v>136</v>
       </c>
       <c r="E15" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>330</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>63</v>
@@ -8011,19 +8005,19 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="22">
         <v>137</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>330</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>151</v>
@@ -8052,13 +8046,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8066,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8077,7 +8071,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8088,7 +8082,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
@@ -8099,7 +8093,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -8110,7 +8104,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8121,7 +8115,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -8132,7 +8126,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -8143,7 +8137,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -8154,7 +8148,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8165,7 +8159,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8176,7 +8170,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8187,7 +8181,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8198,7 +8192,7 @@
         <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8209,7 +8203,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8220,7 +8214,7 @@
         <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8231,7 +8225,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8242,7 +8236,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8253,7 +8247,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8264,7 +8258,7 @@
         <v>103</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8275,7 +8269,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8286,7 +8280,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8297,7 +8291,7 @@
         <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8308,7 +8302,7 @@
         <v>114</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8319,7 +8313,7 @@
         <v>115</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8330,7 +8324,7 @@
         <v>116</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8341,7 +8335,7 @@
         <v>118</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8352,7 +8346,7 @@
         <v>128</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8363,7 +8357,7 @@
         <v>119</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8374,7 +8368,7 @@
         <v>135</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8385,7 +8379,7 @@
         <v>144</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8396,7 +8390,7 @@
         <v>146</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8407,7 +8401,7 @@
         <v>148</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8418,7 +8412,7 @@
         <v>150</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8429,7 +8423,7 @@
         <v>152</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8440,7 +8434,7 @@
         <v>153</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8451,7 +8445,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8462,7 +8456,7 @@
         <v>141</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8470,10 +8464,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8481,10 +8475,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8495,7 +8489,7 @@
         <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8506,7 +8500,7 @@
         <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -8538,13 +8532,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
         <v>376</v>
-      </c>
-      <c r="D1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8552,16 +8546,16 @@
         <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8569,81 +8563,81 @@
         <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8693,43 +8687,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8737,7 +8731,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -8778,7 +8772,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -8819,7 +8813,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -8860,7 +8854,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -8901,7 +8895,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8942,7 +8936,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -8983,7 +8977,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -9024,7 +9018,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -9065,7 +9059,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -9106,7 +9100,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -9147,7 +9141,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -9208,19 +9202,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -9648,7 +9642,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B23" s="13">
         <v>3</v>
@@ -9668,7 +9662,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B24" s="13">
         <v>3</v>
@@ -9688,7 +9682,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B25" s="13">
         <v>0</v>
@@ -9888,7 +9882,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B35" s="13">
         <v>5</v>
@@ -9908,7 +9902,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B36" s="13">
         <v>5</v>
@@ -9928,7 +9922,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B37" s="13">
         <v>3</v>
@@ -9948,7 +9942,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B38" s="13">
         <v>3</v>
@@ -9968,7 +9962,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B39" s="13">
         <v>3</v>
@@ -9988,7 +9982,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B40" s="13">
         <v>5</v>
@@ -10008,7 +10002,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B41" s="13">
         <v>5</v>
@@ -10028,7 +10022,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" s="13">
         <v>3</v>
@@ -10048,7 +10042,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B43" s="13">
         <v>3</v>
@@ -10068,7 +10062,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B44" s="13">
         <v>3</v>
@@ -10148,7 +10142,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B48" s="13">
         <v>3</v>
@@ -10168,7 +10162,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B49" s="13">
         <v>3</v>
@@ -10188,7 +10182,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B50" s="13">
         <v>3</v>
@@ -10208,7 +10202,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B51" s="13">
         <v>3</v>
@@ -10228,7 +10222,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B52" s="13">
         <v>3</v>
@@ -10248,7 +10242,7 @@
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B53" s="13">
         <v>3</v>
@@ -10268,7 +10262,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B54" s="13">
         <v>3</v>
@@ -10288,7 +10282,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B55" s="13">
         <v>3</v>
@@ -10308,7 +10302,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B56" s="13">
         <v>3</v>
@@ -10328,7 +10322,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" s="13">
         <v>3</v>
@@ -10348,7 +10342,7 @@
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="13">
         <v>3</v>
@@ -10368,7 +10362,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B59" s="13">
         <v>3</v>
@@ -10388,7 +10382,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B60" s="13">
         <v>3</v>
@@ -10408,7 +10402,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="13">
         <v>3</v>
@@ -10428,7 +10422,7 @@
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B62" s="13">
         <v>3</v>
@@ -10448,7 +10442,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B63" s="13">
         <v>3</v>
@@ -10468,7 +10462,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B64" s="13">
         <v>3</v>
@@ -10488,7 +10482,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B65" s="13">
         <v>3</v>
@@ -10508,7 +10502,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="13">
         <v>3</v>
@@ -10528,7 +10522,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B67" s="13">
         <v>3</v>
@@ -10548,7 +10542,7 @@
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B68" s="13">
         <v>3</v>
@@ -10568,7 +10562,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B69" s="13">
         <v>3</v>
@@ -10588,7 +10582,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B70" s="13">
         <v>3</v>
@@ -10608,7 +10602,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B71" s="13">
         <v>3</v>
@@ -10628,7 +10622,7 @@
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B72" s="13">
         <v>3</v>
@@ -10648,7 +10642,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B73" s="13">
         <v>3</v>
@@ -10748,7 +10742,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B78" s="12">
         <v>0</v>
@@ -10768,7 +10762,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B79" s="19">
         <v>5</v>
@@ -10788,7 +10782,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B80" s="19">
         <v>5</v>
@@ -10808,7 +10802,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B81" s="20">
         <v>0</v>
@@ -10828,7 +10822,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B82" s="20">
         <v>0</v>
@@ -10848,7 +10842,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B83" s="20">
         <v>0</v>
@@ -10868,7 +10862,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B84" s="20">
         <v>0</v>
@@ -10888,7 +10882,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B85" s="20">
         <v>0</v>
@@ -10908,7 +10902,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B86" s="20">
         <v>0</v>
@@ -10928,7 +10922,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B87" s="20">
         <v>0</v>
@@ -10948,7 +10942,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B88" s="20">
         <v>0</v>
@@ -10968,7 +10962,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B89" s="21">
         <v>0</v>
@@ -10988,7 +10982,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B90" s="21">
         <v>9</v>
@@ -11017,8 +11011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView topLeftCell="A18" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11043,16 +11037,16 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="E1" s="3">
         <v>23</v>
@@ -11129,7 +11123,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>76</v>
@@ -11138,7 +11132,7 @@
         <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -11150,54 +11144,54 @@
       <c r="L2" s="5"/>
       <c r="M2" s="10"/>
       <c r="N2" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>107</v>
@@ -11206,84 +11200,84 @@
         <v>107</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" t="s">
         <v>489</v>
       </c>
-      <c r="AA3" t="s">
-        <v>490</v>
-      </c>
       <c r="AB3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -11297,13 +11291,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -11317,13 +11311,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -11337,13 +11331,13 @@
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
@@ -11412,13 +11406,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8">
@@ -11490,13 +11484,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D9" s="3">
         <v>294947</v>
@@ -11570,13 +11564,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D10" s="3">
         <v>557315</v>
@@ -11650,13 +11644,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D11" s="3">
         <v>1081603</v>
@@ -11730,13 +11724,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D12" s="3">
         <v>2130019</v>
@@ -11810,13 +11804,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D13" s="3">
         <v>2130947</v>
@@ -11893,10 +11887,10 @@
         <v>90</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D14" s="3">
         <v>2059</v>
@@ -11973,10 +11967,10 @@
         <v>117</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D15" s="3">
         <v>8451</v>
@@ -12052,13 +12046,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="D16" s="3">
         <v>4137</v>
@@ -12138,13 +12132,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D17" s="3">
         <v>17665</v>
@@ -12224,189 +12218,189 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="D34">
         <v>98315</v>
@@ -12414,13 +12408,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D35">
         <v>163851</v>
@@ -12428,13 +12422,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D36">
         <v>294923</v>
@@ -12442,107 +12436,107 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>527</v>
+        <v>491</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>526</v>
       </c>
       <c r="D37">
         <v>557067</v>
       </c>
-      <c r="E37" s="71" t="s">
-        <v>528</v>
+      <c r="E37" s="53" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C38" s="69" t="s">
-        <v>526</v>
+        <v>491</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/Integrate_120KW_huawei_20KW/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_huawei_20KW/IntegrateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\mcmc\platDemo\platDemo\config\project\Integrate_120KW_huawei_20KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58434140-8FCF-43AA-918A-F25A57CACE18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5B2F91A-B39A-4A7F-8534-6D9AE0378703}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="7730" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="538">
   <si>
     <t>组序号</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>升级控制盒程序</t>
-  </si>
-  <si>
-    <t>显示模块及语音检查</t>
   </si>
   <si>
     <t>软件版本检查</t>
@@ -436,9 +433,6 @@
     <t>枪1插枪后测量值</t>
   </si>
   <si>
-    <t>(4±0.2)V</t>
-  </si>
-  <si>
     <t>枪1电池反接告警</t>
   </si>
   <si>
@@ -814,9 +808,6 @@
     <t>资产编号</t>
   </si>
   <si>
-    <t>显示板号</t>
-  </si>
-  <si>
     <t>控制盒编号</t>
   </si>
   <si>
@@ -1028,9 +1019,6 @@
     <t>PowerModule_120KW</t>
   </si>
   <si>
-    <t>(302±3)V</t>
-  </si>
-  <si>
     <t>120KW_电源模块2</t>
   </si>
   <si>
@@ -1317,9 +1305,6 @@
     </r>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>模块二维码录入</t>
   </si>
   <si>
@@ -1342,9 +1327,6 @@
   </si>
   <si>
     <t>模块6二维码</t>
-  </si>
-  <si>
-    <t>华为电源模块设置</t>
   </si>
   <si>
     <t>3</t>
@@ -2605,6 +2587,54 @@
   </si>
   <si>
     <t>ZB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示板号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4±0.4)V</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为电源模块测试设置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为电源模块出厂设置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12V电源模块</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(300±3)V</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示模块检查</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV1.00.3573</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV1.00.3587</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2728,7 +2758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2816,6 +2846,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2826,7 +2887,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2983,6 +3044,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3017,6 +3093,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3308,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H205" sqref="H205"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3649,11 +3734,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="22">
@@ -3670,9 +3755,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -3687,9 +3772,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -3704,9 +3789,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -3721,9 +3806,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -3784,11 +3869,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="61" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="22">
@@ -3805,9 +3890,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -3822,9 +3907,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -3839,9 +3924,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3856,9 +3941,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3896,7 +3981,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="23" t="s">
-        <v>43</v>
+        <v>534</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>8</v>
@@ -3905,28 +3990,28 @@
         <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>45</v>
+      <c r="C29" s="64" t="s">
+        <v>535</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>9</v>
@@ -3936,31 +4021,31 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>9</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="37" t="s">
         <v>9</v>
@@ -3970,52 +4055,52 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>9</v>
+      <c r="G32" s="50" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="22">
         <v>32</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="22">
         <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="37" t="s">
         <v>9</v>
@@ -4025,35 +4110,35 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="22">
         <v>34</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55" t="s">
+      <c r="C36" s="59" t="s">
         <v>54</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>55</v>
       </c>
       <c r="D36" s="22">
         <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>32</v>
@@ -4063,14 +4148,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="22">
         <v>36</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>9</v>
@@ -4080,18 +4165,18 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>45</v>
+      <c r="A38" s="60"/>
+      <c r="B38" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="D38" s="22">
         <v>37</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>9</v>
@@ -4101,14 +4186,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="22">
         <v>38</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="37" t="s">
         <v>9</v>
@@ -4118,128 +4203,128 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>45</v>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="D40" s="22">
         <v>39</v>
       </c>
       <c r="E40" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="22">
         <v>43</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="55">
+      <c r="A45" s="60">
         <v>13</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55" t="s">
-        <v>45</v>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60" t="s">
+        <v>44</v>
       </c>
       <c r="D45" s="22">
         <v>44</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="37"/>
       <c r="B46" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="D46" s="22">
         <v>45</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>32</v>
@@ -4251,7 +4336,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="37"/>
       <c r="B47" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>8</v>
@@ -4260,7 +4345,7 @@
         <v>46</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>9</v>
@@ -4272,74 +4357,74 @@
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37"/>
       <c r="B48" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="22">
         <v>47</v>
       </c>
       <c r="E48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62" t="s">
+      <c r="C49" s="67" t="s">
         <v>73</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>74</v>
       </c>
       <c r="D49" s="22">
         <v>48</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="G49" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
       <c r="E50" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="G50" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
       <c r="E51" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>9</v>
@@ -4348,58 +4433,58 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="37"/>
       <c r="B52" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" s="22">
         <v>51</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="37"/>
       <c r="B53" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53" s="22">
         <v>52</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F53" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>85</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37"/>
       <c r="B54" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D54" s="22">
         <v>53</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F54" s="37" t="s">
         <v>9</v>
@@ -4411,88 +4496,88 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="37"/>
       <c r="B55" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D55" s="22">
         <v>54</v>
       </c>
       <c r="E55" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="61"/>
+      <c r="B56" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="61" t="s">
         <v>90</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>92</v>
       </c>
       <c r="D56" s="22">
         <v>55</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F56" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="22">
         <v>56</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F57" s="39" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
       <c r="D58" s="22">
         <v>57</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F58" s="39" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="22">
         <v>58</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F59" s="37" t="s">
         <v>9</v>
@@ -4502,48 +4587,48 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="22">
         <v>59</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F60" s="39" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="22">
         <v>60</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F61" s="39" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="22">
         <v>61</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F62" s="37" t="s">
         <v>9</v>
@@ -4555,7 +4640,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>8</v>
@@ -4564,7 +4649,7 @@
         <v>62</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F63" s="37" t="s">
         <v>9</v>
@@ -4576,16 +4661,16 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="37"/>
       <c r="B64" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D64" s="22">
         <v>63</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="37" t="s">
         <v>9</v>
@@ -4595,55 +4680,55 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="62"/>
-      <c r="B65" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>74</v>
+      <c r="A65" s="67"/>
+      <c r="B65" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>73</v>
       </c>
       <c r="D65" s="22">
         <v>64</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="22">
         <v>65</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="22">
         <v>66</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>9</v>
@@ -4652,58 +4737,58 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68" s="22">
         <v>67</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69" s="22">
         <v>68</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F69" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>85</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="37"/>
       <c r="B70" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D70" s="22">
         <v>69</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F70" s="37" t="s">
         <v>9</v>
@@ -4715,16 +4800,16 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D71" s="22">
         <v>70</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F71" s="37" t="s">
         <v>9</v>
@@ -4734,69 +4819,69 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="56"/>
-      <c r="B72" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>92</v>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="61" t="s">
+        <v>90</v>
       </c>
       <c r="D72" s="22">
         <v>71</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F72" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="22">
         <v>73</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="22">
         <v>74</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F75" s="37" t="s">
         <v>9</v>
@@ -4806,48 +4891,48 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="22">
         <v>75</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="22">
         <v>76</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="22">
         <v>77</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F78" s="37" t="s">
         <v>9</v>
@@ -4859,7 +4944,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="37"/>
       <c r="B79" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>8</v>
@@ -4868,7 +4953,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F79" s="37" t="s">
         <v>9</v>
@@ -4880,16 +4965,16 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="37"/>
       <c r="B80" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D80" s="22">
         <v>79</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F80" s="37" t="s">
         <v>9</v>
@@ -4899,18 +4984,18 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>130</v>
+      <c r="A81" s="59"/>
+      <c r="B81" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>128</v>
       </c>
       <c r="D81" s="22">
         <v>80</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F81" s="37" t="s">
         <v>9</v>
@@ -4920,14 +5005,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="22">
         <v>81</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F82" s="37" t="s">
         <v>9</v>
@@ -4937,14 +5022,14 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="22">
         <v>82</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F83" s="37" t="s">
         <v>9</v>
@@ -4954,14 +5039,14 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="22">
         <v>83</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>9</v>
@@ -4973,16 +5058,16 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="37"/>
       <c r="B85" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D85" s="22">
         <v>84</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F85" s="16" t="s">
         <v>32</v>
@@ -4994,7 +5079,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="37"/>
       <c r="B86" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>8</v>
@@ -5003,7 +5088,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F86" s="37" t="s">
         <v>9</v>
@@ -5015,16 +5100,16 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="37"/>
       <c r="B87" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D87" s="22">
         <v>86</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F87" s="16" t="s">
         <v>32</v>
@@ -5036,16 +5121,16 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="37"/>
       <c r="B88" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D88" s="22">
         <v>87</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F88" s="37">
         <v>20</v>
@@ -5057,16 +5142,16 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="37"/>
       <c r="B89" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D89" s="22">
         <v>88</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F89" s="37">
         <v>20</v>
@@ -5078,16 +5163,16 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="37"/>
       <c r="B90" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D90" s="22">
         <v>89</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F90" s="16">
         <v>3</v>
@@ -5099,133 +5184,133 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D91" s="22">
         <v>90</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D92" s="22">
         <v>91</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F92" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D93" s="22">
         <v>92</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F93" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D94" s="22">
         <v>93</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F94" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D95" s="22">
         <v>94</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F95" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D96" s="22">
         <v>95</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F96" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>8</v>
@@ -5234,19 +5319,19 @@
         <v>96</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C98" s="22" t="s">
         <v>8</v>
@@ -5255,28 +5340,28 @@
         <v>97</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="63" t="s">
+      <c r="A99" s="68"/>
+      <c r="B99" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" s="68" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="22">
         <v>98</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F99" s="16" t="s">
         <v>32</v>
@@ -5286,14 +5371,14 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="63"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
       <c r="D100" s="22">
         <v>99</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F100" s="16" t="s">
         <v>32</v>
@@ -5303,14 +5388,14 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="63"/>
-      <c r="B101" s="63"/>
-      <c r="C101" s="63"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
       <c r="D101" s="22">
         <v>100</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>160</v>
+        <v>526</v>
       </c>
       <c r="F101" s="16" t="s">
         <v>32</v>
@@ -5322,16 +5407,16 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D102" s="22">
         <v>101</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F102" s="16" t="s">
         <v>32</v>
@@ -5341,12 +5426,12 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="63"/>
-      <c r="B103" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="C103" s="63" t="s">
-        <v>45</v>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="68" t="s">
+        <v>44</v>
       </c>
       <c r="D103" s="22">
         <v>102</v>
@@ -5362,9 +5447,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="64"/>
+      <c r="A104" s="69"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
       <c r="D104" s="22">
         <v>103</v>
       </c>
@@ -5379,9 +5464,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="64"/>
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
+      <c r="A105" s="69"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
       <c r="D105" s="22">
         <v>104</v>
       </c>
@@ -5398,19 +5483,19 @@
     <row r="106" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D106" s="22">
         <v>105</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F106" s="50" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>32</v>
@@ -5419,16 +5504,16 @@
     <row r="107" spans="1:7" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D107" s="22">
         <v>106</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>32</v>
@@ -5440,7 +5525,7 @@
     <row r="108" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>8</v>
@@ -5449,7 +5534,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>32</v>
@@ -5461,7 +5546,7 @@
     <row r="109" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>8</v>
@@ -5470,7 +5555,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>32</v>
@@ -5482,7 +5567,7 @@
     <row r="110" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>8</v>
@@ -5491,7 +5576,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>32</v>
@@ -5503,7 +5588,7 @@
     <row r="111" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>8</v>
@@ -5512,7 +5597,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>32</v>
@@ -5524,7 +5609,7 @@
     <row r="112" spans="1:7" s="33" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C112" s="22" t="s">
         <v>8</v>
@@ -5533,7 +5618,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>32</v>
@@ -5545,16 +5630,16 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
       <c r="B113" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D113" s="22">
         <v>112</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F113" s="16" t="s">
         <v>32</v>
@@ -5566,16 +5651,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
       <c r="B114" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D114" s="22">
         <v>113</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>32</v>
@@ -5587,16 +5672,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
       <c r="B115" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D115" s="22">
         <v>114</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>32</v>
@@ -5608,16 +5693,16 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
       <c r="B116" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D116" s="22">
         <v>115</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>32</v>
@@ -5629,16 +5714,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="32"/>
       <c r="B117" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D117" s="22">
         <v>116</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>32</v>
@@ -5650,16 +5735,16 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="32"/>
       <c r="B118" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D118" s="22">
         <v>117</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F118" s="16" t="s">
         <v>32</v>
@@ -5671,16 +5756,16 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="32"/>
       <c r="B119" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D119" s="22">
         <v>118</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F119" s="16" t="s">
         <v>32</v>
@@ -5692,16 +5777,16 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D120" s="22">
         <v>119</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>32</v>
@@ -5713,16 +5798,16 @@
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D121" s="22">
         <v>120</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F121" s="16" t="s">
         <v>32</v>
@@ -5734,16 +5819,16 @@
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D122" s="22">
         <v>121</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F122" s="16" t="s">
         <v>32</v>
@@ -5755,16 +5840,16 @@
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D123" s="22">
         <v>122</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F123" s="16" t="s">
         <v>32</v>
@@ -5776,16 +5861,16 @@
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D124" s="22">
         <v>123</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F124" s="16" t="s">
         <v>32</v>
@@ -5797,16 +5882,16 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D125" s="22">
         <v>124</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F125" s="16" t="s">
         <v>32</v>
@@ -5818,16 +5903,16 @@
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D126" s="22">
         <v>125</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>32</v>
@@ -5839,16 +5924,16 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D127" s="22">
         <v>126</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F127" s="16" t="s">
         <v>32</v>
@@ -5860,16 +5945,16 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D128" s="22">
         <v>127</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>32</v>
@@ -5881,16 +5966,16 @@
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D129" s="22">
         <v>128</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>32</v>
@@ -5902,16 +5987,16 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D130" s="22">
         <v>129</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F130" s="16" t="s">
         <v>32</v>
@@ -5923,16 +6008,16 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D131" s="22">
         <v>130</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F131" s="16" t="s">
         <v>32</v>
@@ -5944,16 +6029,16 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D132" s="22">
         <v>131</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F132" s="16" t="s">
         <v>32</v>
@@ -5965,16 +6050,16 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D133" s="22">
         <v>132</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F133" s="16" t="s">
         <v>32</v>
@@ -5986,16 +6071,16 @@
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D134" s="22">
         <v>133</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F134" s="16" t="s">
         <v>32</v>
@@ -6007,16 +6092,16 @@
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D135" s="22">
         <v>134</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F135" s="16" t="s">
         <v>32</v>
@@ -6028,16 +6113,16 @@
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D136" s="22">
         <v>135</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F136" s="16" t="s">
         <v>32</v>
@@ -6049,7 +6134,7 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>8</v>
@@ -6058,7 +6143,7 @@
         <v>136</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F137" s="16" t="s">
         <v>32</v>
@@ -6070,7 +6155,7 @@
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>8</v>
@@ -6079,7 +6164,7 @@
         <v>137</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F138" s="16" t="s">
         <v>32</v>
@@ -6091,7 +6176,7 @@
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>8</v>
@@ -6100,7 +6185,7 @@
         <v>138</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F139" s="16" t="s">
         <v>32</v>
@@ -6112,7 +6197,7 @@
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>8</v>
@@ -6121,7 +6206,7 @@
         <v>139</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F140" s="16" t="s">
         <v>32</v>
@@ -6133,7 +6218,7 @@
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>8</v>
@@ -6142,7 +6227,7 @@
         <v>140</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F141" s="16" t="s">
         <v>32</v>
@@ -6154,7 +6239,7 @@
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>8</v>
@@ -6163,7 +6248,7 @@
         <v>141</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>32</v>
@@ -6175,7 +6260,7 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>8</v>
@@ -6184,7 +6269,7 @@
         <v>142</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F143" s="16" t="s">
         <v>32</v>
@@ -6196,7 +6281,7 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>8</v>
@@ -6205,7 +6290,7 @@
         <v>143</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F144" s="16" t="s">
         <v>32</v>
@@ -6217,7 +6302,7 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>8</v>
@@ -6226,7 +6311,7 @@
         <v>144</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F145" s="16" t="s">
         <v>32</v>
@@ -6238,7 +6323,7 @@
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>8</v>
@@ -6247,7 +6332,7 @@
         <v>145</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F146" s="16" t="s">
         <v>32</v>
@@ -6259,7 +6344,7 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>8</v>
@@ -6268,7 +6353,7 @@
         <v>146</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>32</v>
@@ -6280,7 +6365,7 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>8</v>
@@ -6289,7 +6374,7 @@
         <v>147</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>32</v>
@@ -6301,7 +6386,7 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>8</v>
@@ -6310,7 +6395,7 @@
         <v>148</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>32</v>
@@ -6322,7 +6407,7 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>8</v>
@@ -6331,7 +6416,7 @@
         <v>149</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>32</v>
@@ -6343,16 +6428,16 @@
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D151" s="16">
         <v>150</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F151" s="16" t="s">
         <v>32</v>
@@ -6364,16 +6449,16 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D152" s="16">
         <v>151</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>32</v>
@@ -6383,571 +6468,571 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="65"/>
-      <c r="B153" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="C153" s="55" t="s">
-        <v>218</v>
+      <c r="A153" s="70"/>
+      <c r="B153" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C153" s="60" t="s">
+        <v>215</v>
       </c>
       <c r="D153" s="16">
         <v>152</v>
       </c>
       <c r="E153" s="40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F153" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G153" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="65"/>
-      <c r="B154" s="65"/>
-      <c r="C154" s="55"/>
+      <c r="A154" s="70"/>
+      <c r="B154" s="70"/>
+      <c r="C154" s="60"/>
       <c r="D154" s="16">
         <v>153</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F154" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G154" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="65"/>
-      <c r="B155" s="65"/>
-      <c r="C155" s="55"/>
+      <c r="A155" s="70"/>
+      <c r="B155" s="70"/>
+      <c r="C155" s="60"/>
       <c r="D155" s="16">
         <v>154</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G155" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
       <c r="B156" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D156" s="46">
         <v>155</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F156" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G156" s="16" t="s">
-        <v>225</v>
+      <c r="G156" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="44"/>
       <c r="B157" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D157" s="46">
         <v>156</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F157" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G157" s="16" t="s">
-        <v>225</v>
+      <c r="G157" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="44"/>
       <c r="B158" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D158" s="46">
         <v>157</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F158" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G158" s="16" t="s">
-        <v>225</v>
+      <c r="G158" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="44"/>
       <c r="B159" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D159" s="46">
         <v>158</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F159" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="G159" s="16" t="s">
-        <v>225</v>
+        <v>518</v>
+      </c>
+      <c r="G159" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="44"/>
       <c r="B160" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D160" s="46">
         <v>159</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F160" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G160" s="16" t="s">
-        <v>225</v>
+      <c r="G160" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="44"/>
       <c r="B161" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D161" s="46">
         <v>160</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F161" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G161" s="16" t="s">
-        <v>225</v>
+      <c r="G161" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="44"/>
       <c r="B162" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D162" s="46">
         <v>161</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F162" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G162" s="16" t="s">
-        <v>225</v>
+      <c r="G162" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="44"/>
       <c r="B163" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D163" s="46">
         <v>162</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F163" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G163" s="16" t="s">
-        <v>225</v>
+      <c r="G163" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="44"/>
       <c r="B164" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D164" s="46">
         <v>163</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F164" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G164" s="16" t="s">
-        <v>225</v>
+      <c r="G164" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="44"/>
       <c r="B165" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D165" s="46">
         <v>164</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F165" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G165" s="16" t="s">
-        <v>225</v>
+      <c r="G165" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="44"/>
       <c r="B166" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D166" s="46">
         <v>165</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F166" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G166" s="16" t="s">
-        <v>225</v>
+      <c r="G166" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
       <c r="B167" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D167" s="46">
         <v>166</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F167" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G167" s="16" t="s">
-        <v>225</v>
+      <c r="G167" s="58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="56"/>
-      <c r="B168" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="C168" s="56" t="s">
-        <v>218</v>
+      <c r="A168" s="61"/>
+      <c r="B168" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C168" s="61" t="s">
+        <v>215</v>
       </c>
       <c r="D168" s="46">
         <v>167</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F168" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G168" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="57"/>
-      <c r="B169" s="67"/>
-      <c r="C169" s="67"/>
+      <c r="A169" s="62"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
       <c r="D169" s="46">
         <v>168</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F169" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G169" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="57"/>
-      <c r="B170" s="67"/>
-      <c r="C170" s="67"/>
+      <c r="A170" s="62"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="72"/>
       <c r="D170" s="46">
         <v>169</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F170" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="57"/>
-      <c r="B171" s="67"/>
-      <c r="C171" s="67"/>
+      <c r="A171" s="62"/>
+      <c r="B171" s="72"/>
+      <c r="C171" s="72"/>
       <c r="D171" s="46">
         <v>170</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F171" s="39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="57"/>
-      <c r="B172" s="67"/>
-      <c r="C172" s="67"/>
+      <c r="A172" s="62"/>
+      <c r="B172" s="72"/>
+      <c r="C172" s="72"/>
       <c r="D172" s="46">
         <v>171</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F172" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G172" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="57"/>
-      <c r="B173" s="67"/>
-      <c r="C173" s="67"/>
+      <c r="A173" s="62"/>
+      <c r="B173" s="72"/>
+      <c r="C173" s="72"/>
       <c r="D173" s="46">
         <v>172</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F173" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G173" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="58"/>
-      <c r="B174" s="68"/>
-      <c r="C174" s="68"/>
+      <c r="A174" s="63"/>
+      <c r="B174" s="76"/>
+      <c r="C174" s="76"/>
       <c r="D174" s="46">
         <v>173</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F174" s="39" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G174" s="39" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="56"/>
-      <c r="B175" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="C175" s="56" t="s">
-        <v>218</v>
+      <c r="A175" s="61"/>
+      <c r="B175" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C175" s="61" t="s">
+        <v>215</v>
       </c>
       <c r="D175" s="46">
         <v>174</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G175" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="57"/>
-      <c r="B176" s="67"/>
-      <c r="C176" s="67"/>
+      <c r="A176" s="62"/>
+      <c r="B176" s="72"/>
+      <c r="C176" s="72"/>
       <c r="D176" s="46">
         <v>175</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G176" s="39" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="57"/>
-      <c r="B177" s="67"/>
-      <c r="C177" s="67"/>
+      <c r="A177" s="62"/>
+      <c r="B177" s="72"/>
+      <c r="C177" s="72"/>
       <c r="D177" s="46">
         <v>176</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="57"/>
-      <c r="B178" s="67"/>
-      <c r="C178" s="67"/>
+      <c r="A178" s="62"/>
+      <c r="B178" s="72"/>
+      <c r="C178" s="72"/>
       <c r="D178" s="46">
         <v>177</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G178" s="39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="57"/>
-      <c r="B179" s="67"/>
-      <c r="C179" s="67"/>
+      <c r="A179" s="62"/>
+      <c r="B179" s="72"/>
+      <c r="C179" s="72"/>
       <c r="D179" s="46">
         <v>178</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="57"/>
-      <c r="B180" s="67"/>
-      <c r="C180" s="67"/>
+      <c r="A180" s="62"/>
+      <c r="B180" s="72"/>
+      <c r="C180" s="72"/>
       <c r="D180" s="46">
         <v>179</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="58"/>
-      <c r="B181" s="68"/>
-      <c r="C181" s="68"/>
+      <c r="A181" s="63"/>
+      <c r="B181" s="76"/>
+      <c r="C181" s="76"/>
       <c r="D181" s="46">
         <v>180</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="47"/>
       <c r="B182" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D182" s="46">
         <v>181</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F182" s="37" t="s">
         <v>9</v>
@@ -6959,37 +7044,37 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="47"/>
       <c r="B183" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D183" s="46">
         <v>182</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F183" s="37" t="s">
         <v>9</v>
       </c>
       <c r="G183" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="47"/>
       <c r="B184" s="37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D184" s="46">
         <v>183</v>
       </c>
       <c r="E184" s="37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F184" s="37" t="s">
         <v>9</v>
@@ -6999,277 +7084,277 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="66"/>
-      <c r="B185" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="C185" s="69" t="s">
-        <v>261</v>
+      <c r="A185" s="71"/>
+      <c r="B185" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="C185" s="77" t="s">
+        <v>257</v>
       </c>
       <c r="D185" s="46">
         <v>184</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F185" s="48" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G185" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="57"/>
-      <c r="B186" s="67"/>
-      <c r="C186" s="70"/>
+      <c r="A186" s="62"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="78"/>
       <c r="D186" s="46">
         <v>185</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F186" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G186" s="39" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="57"/>
-      <c r="B187" s="67"/>
-      <c r="C187" s="70"/>
+      <c r="A187" s="62"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="78"/>
       <c r="D187" s="46">
         <v>186</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G187" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="57"/>
-      <c r="B188" s="67"/>
-      <c r="C188" s="70"/>
+      <c r="A188" s="62"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="78"/>
       <c r="D188" s="46">
         <v>187</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G188" s="39" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="57"/>
-      <c r="B189" s="67"/>
-      <c r="C189" s="70"/>
+      <c r="A189" s="62"/>
+      <c r="B189" s="72"/>
+      <c r="C189" s="78"/>
       <c r="D189" s="46">
         <v>188</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G189" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="57"/>
-      <c r="B190" s="67"/>
-      <c r="C190" s="70"/>
+      <c r="A190" s="62"/>
+      <c r="B190" s="72"/>
+      <c r="C190" s="78"/>
       <c r="D190" s="46">
         <v>189</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F190" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="57"/>
-      <c r="B191" s="67"/>
-      <c r="C191" s="70"/>
+      <c r="A191" s="62"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="78"/>
       <c r="D191" s="46">
         <v>190</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="57"/>
-      <c r="B192" s="67"/>
-      <c r="C192" s="70"/>
+      <c r="A192" s="62"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="78"/>
       <c r="D192" s="46">
         <v>191</v>
       </c>
       <c r="E192" s="37" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F192" s="16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="57"/>
-      <c r="B193" s="67"/>
-      <c r="C193" s="70"/>
+      <c r="A193" s="62"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="78"/>
       <c r="D193" s="46">
         <v>192</v>
       </c>
       <c r="E193" s="37" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F193" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="57"/>
-      <c r="B194" s="67"/>
-      <c r="C194" s="70"/>
+      <c r="A194" s="62"/>
+      <c r="B194" s="72"/>
+      <c r="C194" s="78"/>
       <c r="D194" s="46">
         <v>193</v>
       </c>
       <c r="E194" s="37" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G194" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="57"/>
-      <c r="B195" s="67"/>
-      <c r="C195" s="70"/>
+      <c r="A195" s="62"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="78"/>
       <c r="D195" s="46">
         <v>194</v>
       </c>
       <c r="E195" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F195" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G195" s="39" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="57"/>
-      <c r="B196" s="67"/>
-      <c r="C196" s="70"/>
+      <c r="A196" s="62"/>
+      <c r="B196" s="72"/>
+      <c r="C196" s="78"/>
       <c r="D196" s="46">
         <v>195</v>
       </c>
       <c r="E196" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G196" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="57"/>
-      <c r="B197" s="67"/>
-      <c r="C197" s="70"/>
+      <c r="A197" s="62"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="78"/>
       <c r="D197" s="46">
         <v>196</v>
       </c>
       <c r="E197" s="37" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F197" s="16" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G197" s="39" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="57"/>
-      <c r="B198" s="67"/>
-      <c r="C198" s="70"/>
+      <c r="A198" s="62"/>
+      <c r="B198" s="72"/>
+      <c r="C198" s="78"/>
       <c r="D198" s="46">
         <v>197</v>
       </c>
       <c r="E198" s="37" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G198" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="58"/>
-      <c r="B199" s="68"/>
-      <c r="C199" s="71"/>
+      <c r="A199" s="63"/>
+      <c r="B199" s="76"/>
+      <c r="C199" s="79"/>
       <c r="D199" s="46">
         <v>198</v>
       </c>
       <c r="E199" s="37" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G199" s="39" t="s">
-        <v>296</v>
+        <v>531</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="56"/>
-      <c r="B200" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="C200" s="56" t="s">
-        <v>298</v>
+      <c r="A200" s="61"/>
+      <c r="B200" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C200" s="61" t="s">
+        <v>293</v>
       </c>
       <c r="D200" s="46">
         <v>199</v>
       </c>
       <c r="E200" s="37" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F200" s="37" t="s">
         <v>9</v>
@@ -7279,14 +7364,14 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="67"/>
-      <c r="B201" s="67"/>
-      <c r="C201" s="67"/>
+      <c r="A201" s="72"/>
+      <c r="B201" s="72"/>
+      <c r="C201" s="72"/>
       <c r="D201" s="46">
         <v>200</v>
       </c>
       <c r="E201" s="37" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F201" s="37" t="s">
         <v>9</v>
@@ -7296,14 +7381,14 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="67"/>
-      <c r="B202" s="67"/>
-      <c r="C202" s="67"/>
+      <c r="A202" s="72"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="72"/>
       <c r="D202" s="46">
         <v>201</v>
       </c>
       <c r="E202" s="37" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F202" s="37" t="s">
         <v>9</v>
@@ -7313,14 +7398,14 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="67"/>
-      <c r="B203" s="67"/>
-      <c r="C203" s="67"/>
+      <c r="A203" s="72"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="72"/>
       <c r="D203" s="46">
         <v>202</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F203" s="37" t="s">
         <v>9</v>
@@ -7330,14 +7415,14 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="67"/>
-      <c r="B204" s="67"/>
-      <c r="C204" s="67"/>
+      <c r="A204" s="72"/>
+      <c r="B204" s="72"/>
+      <c r="C204" s="72"/>
       <c r="D204" s="46">
         <v>203</v>
       </c>
       <c r="E204" s="37" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F204" s="37" t="s">
         <v>9</v>
@@ -7347,14 +7432,14 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="67"/>
-      <c r="B205" s="67"/>
-      <c r="C205" s="67"/>
+      <c r="A205" s="72"/>
+      <c r="B205" s="72"/>
+      <c r="C205" s="72"/>
       <c r="D205" s="46">
         <v>204</v>
       </c>
       <c r="E205" s="37" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F205" s="37" t="s">
         <v>9</v>
@@ -7364,256 +7449,399 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="56"/>
-      <c r="B206" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="C206" s="56" t="s">
-        <v>218</v>
+      <c r="A206" s="73"/>
+      <c r="B206" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="C206" s="59" t="s">
+        <v>215</v>
       </c>
       <c r="D206" s="46">
         <v>207</v>
       </c>
-      <c r="E206" s="16" t="s">
-        <v>238</v>
+      <c r="E206" s="54" t="s">
+        <v>234</v>
       </c>
       <c r="F206" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G206" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="57"/>
-      <c r="B207" s="67"/>
-      <c r="C207" s="67"/>
+      <c r="A207" s="74"/>
+      <c r="B207" s="59"/>
+      <c r="C207" s="59"/>
       <c r="D207" s="46">
         <v>208</v>
       </c>
-      <c r="E207" s="16" t="s">
-        <v>239</v>
+      <c r="E207" s="54" t="s">
+        <v>235</v>
       </c>
       <c r="F207" s="39" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G207" s="39" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="57"/>
-      <c r="B208" s="67"/>
-      <c r="C208" s="67"/>
+      <c r="A208" s="74"/>
+      <c r="B208" s="59"/>
+      <c r="C208" s="59"/>
       <c r="D208" s="46">
         <v>209</v>
       </c>
-      <c r="E208" s="16" t="s">
-        <v>241</v>
+      <c r="E208" s="54" t="s">
+        <v>237</v>
       </c>
       <c r="F208" s="39" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G208" s="39" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="57"/>
-      <c r="B209" s="67"/>
-      <c r="C209" s="67"/>
+      <c r="A209" s="74"/>
+      <c r="B209" s="59"/>
+      <c r="C209" s="59"/>
       <c r="D209" s="46">
         <v>210</v>
       </c>
-      <c r="E209" s="16" t="s">
-        <v>242</v>
+      <c r="E209" s="54" t="s">
+        <v>238</v>
       </c>
       <c r="F209" s="39" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G209" s="39" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="57"/>
-      <c r="B210" s="67"/>
-      <c r="C210" s="67"/>
+      <c r="A210" s="74"/>
+      <c r="B210" s="59"/>
+      <c r="C210" s="59"/>
       <c r="D210" s="46">
         <v>211</v>
       </c>
-      <c r="E210" s="16" t="s">
-        <v>244</v>
+      <c r="E210" s="54" t="s">
+        <v>240</v>
       </c>
       <c r="F210" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G210" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="57"/>
-      <c r="B211" s="67"/>
-      <c r="C211" s="67"/>
+      <c r="A211" s="74"/>
+      <c r="B211" s="59"/>
+      <c r="C211" s="59"/>
       <c r="D211" s="46">
         <v>212</v>
       </c>
-      <c r="E211" s="16" t="s">
-        <v>246</v>
+      <c r="E211" s="54" t="s">
+        <v>242</v>
       </c>
       <c r="F211" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G211" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="58"/>
-      <c r="B212" s="68"/>
-      <c r="C212" s="68"/>
+      <c r="A212" s="75"/>
+      <c r="B212" s="59"/>
+      <c r="C212" s="59"/>
       <c r="D212" s="46">
         <v>213</v>
       </c>
-      <c r="E212" s="16" t="s">
-        <v>248</v>
+      <c r="E212" s="54" t="s">
+        <v>244</v>
       </c>
       <c r="F212" s="39" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G212" s="39" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="49"/>
-      <c r="B213" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="C213" s="37" t="s">
-        <v>523</v>
+      <c r="B213" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="C213" s="55" t="s">
+        <v>517</v>
       </c>
       <c r="D213" s="46">
         <v>214</v>
       </c>
-      <c r="E213" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="F213" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G213" s="37" t="s">
+      <c r="E213" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="F213" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B214" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="C214" s="37" t="s">
-        <v>523</v>
+      <c r="B214" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="C214" s="55" t="s">
+        <v>517</v>
       </c>
       <c r="D214" s="46">
         <v>215</v>
       </c>
-      <c r="E214" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="F214" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G214" s="37" t="s">
+      <c r="E214" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="F214" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B215" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="C215" s="37" t="s">
-        <v>523</v>
+      <c r="B215" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="C215" s="55" t="s">
+        <v>517</v>
       </c>
       <c r="D215" s="46">
         <v>216</v>
       </c>
-      <c r="E215" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="F215" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G215" s="37" t="s">
+      <c r="E215" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="F215" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B216" s="37" t="s">
-        <v>520</v>
-      </c>
-      <c r="C216" s="37" t="s">
-        <v>523</v>
+      <c r="B216" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="C216" s="55" t="s">
+        <v>517</v>
       </c>
       <c r="D216" s="46">
         <v>217</v>
       </c>
-      <c r="E216" s="37" t="s">
-        <v>520</v>
-      </c>
-      <c r="F216" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G216" s="37" t="s">
+      <c r="E216" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="F216" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B217" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="C217" s="37" t="s">
-        <v>523</v>
+      <c r="B217" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="C217" s="55" t="s">
+        <v>517</v>
       </c>
       <c r="D217" s="46">
         <v>218</v>
       </c>
-      <c r="E217" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="F217" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G217" s="37" t="s">
+      <c r="E217" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="F217" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="C218" s="37" t="s">
-        <v>523</v>
+      <c r="B218" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="C218" s="55" t="s">
+        <v>517</v>
       </c>
       <c r="D218" s="46">
         <v>219</v>
       </c>
-      <c r="E218" s="37" t="s">
+      <c r="E218" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="F218" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="C219" s="55" t="s">
+        <v>517</v>
+      </c>
+      <c r="D219" s="46">
+        <v>220</v>
+      </c>
+      <c r="E219" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="F219" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="59" t="s">
+        <v>528</v>
+      </c>
+      <c r="C220" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D220" s="46">
+        <v>221</v>
+      </c>
+      <c r="E220" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="F220" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G220" s="39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="59"/>
+      <c r="C221" s="59"/>
+      <c r="D221" s="46">
+        <v>222</v>
+      </c>
+      <c r="E221" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="F221" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="G221" s="39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="59"/>
+      <c r="C222" s="59"/>
+      <c r="D222" s="46">
+        <v>223</v>
+      </c>
+      <c r="E222" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="F222" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="G222" s="39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="59"/>
+      <c r="C223" s="59"/>
+      <c r="D223" s="46">
+        <v>224</v>
+      </c>
+      <c r="E223" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F223" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G223" s="39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="59"/>
+      <c r="C224" s="59"/>
+      <c r="D224" s="46">
+        <v>225</v>
+      </c>
+      <c r="E224" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="F224" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="F218" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G218" s="37" t="s">
-        <v>9</v>
+      <c r="G224" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="59"/>
+      <c r="C225" s="59"/>
+      <c r="D225" s="46">
+        <v>226</v>
+      </c>
+      <c r="E225" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="F225" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="G225" s="39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="59"/>
+      <c r="C226" s="59"/>
+      <c r="D226" s="46">
+        <v>227</v>
+      </c>
+      <c r="E226" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="F226" s="57" t="s">
+        <v>530</v>
+      </c>
+      <c r="G226" s="57" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="62">
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="C220:C226"/>
     <mergeCell ref="C168:C174"/>
     <mergeCell ref="C175:C181"/>
     <mergeCell ref="C185:C199"/>
     <mergeCell ref="C200:C205"/>
     <mergeCell ref="C206:C212"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="B206:B212"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="C99:C101"/>
@@ -7629,11 +7857,6 @@
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="B206:B212"/>
     <mergeCell ref="B72:B78"/>
     <mergeCell ref="B81:B84"/>
     <mergeCell ref="B99:B101"/>
@@ -7690,337 +7913,337 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="16" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D1" s="22">
         <v>122</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" s="22">
         <v>123</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D3" s="22">
         <v>124</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="22">
         <v>125</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" s="22">
         <v>126</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="22">
         <v>127</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" s="22">
         <v>128</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D8" s="22">
         <v>129</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D9" s="22">
         <v>130</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" s="22">
         <v>131</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D11" s="22">
         <v>132</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D12" s="22">
         <v>133</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D13" s="22">
         <v>134</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="16" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D14" s="22">
         <v>135</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D15" s="22">
         <v>136</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="16" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D16" s="22">
         <v>137</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8046,13 +8269,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8060,7 +8283,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8071,7 +8294,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8082,7 +8305,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
@@ -8093,7 +8316,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -8104,7 +8327,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8115,7 +8338,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -8126,7 +8349,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -8137,7 +8360,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -8148,7 +8371,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8159,7 +8382,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8170,7 +8393,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8181,7 +8404,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8189,10 +8412,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8200,10 +8423,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8211,10 +8434,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8222,10 +8445,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8233,10 +8456,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8244,10 +8467,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8255,10 +8478,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8266,10 +8489,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8277,10 +8500,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8288,10 +8511,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8299,10 +8522,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8310,10 +8533,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8321,10 +8544,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8332,10 +8555,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8343,10 +8566,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8354,10 +8577,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8365,10 +8588,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8376,10 +8599,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8387,10 +8610,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8398,10 +8621,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8409,10 +8632,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8420,10 +8643,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8431,10 +8654,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8442,10 +8665,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8453,10 +8676,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8464,10 +8687,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8475,10 +8698,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8486,10 +8709,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8497,10 +8720,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8532,112 +8755,112 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8687,43 +8910,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8731,7 +8954,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -8772,7 +8995,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -8813,7 +9036,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -8854,7 +9077,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -8895,7 +9118,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8936,7 +9159,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -8977,7 +9200,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -9018,7 +9241,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -9059,7 +9282,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -9100,7 +9323,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -9141,7 +9364,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -9202,19 +9425,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -9279,7 +9502,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="13">
         <v>10</v>
@@ -9299,7 +9522,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="13">
         <v>10</v>
@@ -9319,7 +9542,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="13">
         <v>10</v>
@@ -9339,7 +9562,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="13">
         <v>10</v>
@@ -9360,7 +9583,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="13">
         <v>10</v>
@@ -9381,7 +9604,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="13">
         <v>10</v>
@@ -9402,7 +9625,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="13">
         <v>7</v>
@@ -9422,7 +9645,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="13">
         <v>7</v>
@@ -9442,7 +9665,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="13">
         <v>2</v>
@@ -9462,7 +9685,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="13">
         <v>2</v>
@@ -9482,7 +9705,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="13">
         <v>2</v>
@@ -9502,7 +9725,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="13">
         <v>2</v>
@@ -9522,7 +9745,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="13">
         <v>2</v>
@@ -9542,7 +9765,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="13">
         <v>2</v>
@@ -9562,7 +9785,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" s="13">
         <v>3</v>
@@ -9582,7 +9805,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="13">
         <v>3</v>
@@ -9602,7 +9825,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" s="13">
         <v>3</v>
@@ -9622,7 +9845,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" s="13">
         <v>3</v>
@@ -9642,7 +9865,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B23" s="13">
         <v>3</v>
@@ -9662,7 +9885,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B24" s="13">
         <v>3</v>
@@ -9682,7 +9905,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B25" s="13">
         <v>0</v>
@@ -9702,7 +9925,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="13">
         <v>0</v>
@@ -9722,7 +9945,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="13">
         <v>0</v>
@@ -9742,7 +9965,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="13">
         <v>0</v>
@@ -9762,7 +9985,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="13">
         <v>0</v>
@@ -9782,7 +10005,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="13">
         <v>0</v>
@@ -9802,7 +10025,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="13">
         <v>2</v>
@@ -9822,7 +10045,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="13">
         <v>2</v>
@@ -9842,7 +10065,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="13">
         <v>0</v>
@@ -9862,7 +10085,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="13">
         <v>3</v>
@@ -9882,7 +10105,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B35" s="13">
         <v>5</v>
@@ -9902,7 +10125,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B36" s="13">
         <v>5</v>
@@ -9922,7 +10145,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B37" s="13">
         <v>3</v>
@@ -9942,7 +10165,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B38" s="13">
         <v>3</v>
@@ -9962,7 +10185,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B39" s="13">
         <v>3</v>
@@ -9982,7 +10205,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B40" s="13">
         <v>5</v>
@@ -10002,7 +10225,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B41" s="13">
         <v>5</v>
@@ -10022,7 +10245,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B42" s="13">
         <v>3</v>
@@ -10042,7 +10265,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B43" s="13">
         <v>3</v>
@@ -10062,7 +10285,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B44" s="13">
         <v>3</v>
@@ -10082,7 +10305,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="13">
         <v>3</v>
@@ -10102,7 +10325,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B46" s="13">
         <v>3</v>
@@ -10122,7 +10345,7 @@
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B47" s="13">
         <v>3</v>
@@ -10142,7 +10365,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B48" s="13">
         <v>3</v>
@@ -10162,7 +10385,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B49" s="13">
         <v>3</v>
@@ -10182,7 +10405,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B50" s="13">
         <v>3</v>
@@ -10202,7 +10425,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B51" s="13">
         <v>3</v>
@@ -10222,7 +10445,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B52" s="13">
         <v>3</v>
@@ -10242,7 +10465,7 @@
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B53" s="13">
         <v>3</v>
@@ -10262,7 +10485,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B54" s="13">
         <v>3</v>
@@ -10282,7 +10505,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B55" s="13">
         <v>3</v>
@@ -10302,7 +10525,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B56" s="13">
         <v>3</v>
@@ -10322,7 +10545,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B57" s="13">
         <v>3</v>
@@ -10342,7 +10565,7 @@
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B58" s="13">
         <v>3</v>
@@ -10362,7 +10585,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B59" s="13">
         <v>3</v>
@@ -10382,7 +10605,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B60" s="13">
         <v>3</v>
@@ -10402,7 +10625,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B61" s="13">
         <v>3</v>
@@ -10422,7 +10645,7 @@
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B62" s="13">
         <v>3</v>
@@ -10442,7 +10665,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B63" s="13">
         <v>3</v>
@@ -10462,7 +10685,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B64" s="13">
         <v>3</v>
@@ -10482,7 +10705,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B65" s="13">
         <v>3</v>
@@ -10502,7 +10725,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B66" s="13">
         <v>3</v>
@@ -10522,7 +10745,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B67" s="13">
         <v>3</v>
@@ -10542,7 +10765,7 @@
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B68" s="13">
         <v>3</v>
@@ -10562,7 +10785,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B69" s="13">
         <v>3</v>
@@ -10582,7 +10805,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B70" s="13">
         <v>3</v>
@@ -10602,7 +10825,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B71" s="13">
         <v>3</v>
@@ -10622,7 +10845,7 @@
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B72" s="13">
         <v>3</v>
@@ -10642,7 +10865,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B73" s="13">
         <v>3</v>
@@ -10662,7 +10885,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="13">
         <v>3</v>
@@ -10682,7 +10905,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="13">
         <v>3</v>
@@ -10702,7 +10925,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="13">
         <v>3</v>
@@ -10722,7 +10945,7 @@
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B77" s="13">
         <v>0</v>
@@ -10742,7 +10965,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B78" s="12">
         <v>0</v>
@@ -10762,7 +10985,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B79" s="19">
         <v>5</v>
@@ -10782,7 +11005,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B80" s="19">
         <v>5</v>
@@ -10802,7 +11025,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B81" s="20">
         <v>0</v>
@@ -10822,7 +11045,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B82" s="20">
         <v>0</v>
@@ -10842,7 +11065,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B83" s="20">
         <v>0</v>
@@ -10862,7 +11085,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B84" s="20">
         <v>0</v>
@@ -10882,7 +11105,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B85" s="20">
         <v>0</v>
@@ -10902,7 +11125,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B86" s="20">
         <v>0</v>
@@ -10922,7 +11145,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B87" s="20">
         <v>0</v>
@@ -10942,7 +11165,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B88" s="20">
         <v>0</v>
@@ -10962,7 +11185,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B89" s="21">
         <v>0</v>
@@ -10982,7 +11205,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B90" s="21">
         <v>9</v>
@@ -11037,16 +11260,16 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E1" s="3">
         <v>23</v>
@@ -11123,16 +11346,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -11144,140 +11367,140 @@
       <c r="L2" s="5"/>
       <c r="M2" s="10"/>
       <c r="N2" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="R3" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="AA3" t="s">
         <v>483</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>489</v>
-      </c>
       <c r="AB3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -11291,13 +11514,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -11311,13 +11534,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -11331,13 +11554,13 @@
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
@@ -11406,13 +11629,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8">
@@ -11484,13 +11707,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D9" s="3">
         <v>294947</v>
@@ -11564,13 +11787,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D10" s="3">
         <v>557315</v>
@@ -11644,13 +11867,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D11" s="3">
         <v>1081603</v>
@@ -11724,13 +11947,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="D12" s="3">
         <v>2130019</v>
@@ -11804,13 +12027,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D13" s="3">
         <v>2130947</v>
@@ -11884,13 +12107,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D14" s="3">
         <v>2059</v>
@@ -11964,13 +12187,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D15" s="3">
         <v>8451</v>
@@ -12046,13 +12269,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D16" s="3">
         <v>4137</v>
@@ -12132,13 +12355,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D17" s="3">
         <v>17665</v>
@@ -12218,189 +12441,189 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D34">
         <v>98315</v>
@@ -12408,13 +12631,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D35">
         <v>163851</v>
@@ -12422,13 +12645,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D36">
         <v>294923</v>
@@ -12436,107 +12659,107 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D37">
         <v>557067</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
